--- a/records/outputs.xlsx
+++ b/records/outputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1(no use)" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="ResNet101_EAF" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="ResNet152" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="ResNet50_CosFacev2_new" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="ResNet50_CosFacev2_new_2" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="259">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -755,6 +756,60 @@
   </si>
   <si>
     <t xml:space="preserve">30 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-5 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8, 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16, 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18, 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22, 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24, 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26, 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28, 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30, 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32, 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34, 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 ep</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1068,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1295,11 +1350,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="38545047"/>
-        <c:axId val="77525056"/>
+        <c:axId val="71816128"/>
+        <c:axId val="49839527"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38545047"/>
+        <c:axId val="71816128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1382,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77525056"/>
+        <c:crossAx val="49839527"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1335,7 +1390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77525056"/>
+        <c:axId val="49839527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1427,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38545047"/>
+        <c:crossAx val="71816128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1420,450 +1475,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00185589775108987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0544519756133533</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.208966143659152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.250243284687845</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.287193360931002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.444295910606053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.436198872378424</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.443989564036845</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.586991155021025</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.584778246516891</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.573221874991279</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.688017684376304</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.699378698243906</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.689023454296935</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.771655879417525</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.785847432538815</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.783409540709852</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.839000816423268</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.849566874897893</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.852010348374227</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.884896770652042</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89156254568632</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.894433873901569</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.912379728916562</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.915755766861459</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.91797833590912</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.926849076333965</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.928615667727108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.929790604498851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.934235313236684</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00845491314092381</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0679295509776476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.196582312177445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.223259168935107</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.258947386499274</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.381134019733283</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.384786995611964</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.388409057731445</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.550567181609748</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.544238448129288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.529379234540974</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.645987651670631</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.634736760753265</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.631789649042962</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.702784814474509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.695125071917426</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.692121284981924</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.735975887267825</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.734966037800658</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.735051909353988</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.754319768490292</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.753498836440452</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.753649970374314</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.761345778983796</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.761234145964466</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.761174035877135</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.764356435643564</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.764117712725305</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.764193279692236</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.765692597013387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="47436663"/>
-        <c:axId val="67150468"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="47436663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67150468"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67150468"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="47436663"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2013,11 +1625,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="3549492"/>
-        <c:axId val="57006086"/>
+        <c:axId val="37583646"/>
+        <c:axId val="38756697"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3549492"/>
+        <c:axId val="37583646"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +1657,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57006086"/>
+        <c:crossAx val="38756697"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2053,7 +1665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57006086"/>
+        <c:axId val="38756697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,7 +1702,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3549492"/>
+        <c:crossAx val="37583646"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2138,7 +1750,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2456,11 +2068,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="32530896"/>
-        <c:axId val="18879846"/>
+        <c:axId val="34709333"/>
+        <c:axId val="39306229"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32530896"/>
+        <c:axId val="34709333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,7 +2104,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18879846"/>
+        <c:crossAx val="39306229"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2500,7 +2112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18879846"/>
+        <c:axId val="39306229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,7 +2154,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32530896"/>
+        <c:crossAx val="34709333"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2593,7 +2205,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2911,11 +2523,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="14532874"/>
-        <c:axId val="55332804"/>
+        <c:axId val="18572273"/>
+        <c:axId val="62737010"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14532874"/>
+        <c:axId val="18572273"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2559,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55332804"/>
+        <c:crossAx val="62737010"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2955,7 +2567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55332804"/>
+        <c:axId val="62737010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2997,7 +2609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14532874"/>
+        <c:crossAx val="18572273"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3048,7 +2660,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3216,11 +2828,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="69453060"/>
-        <c:axId val="72013789"/>
+        <c:axId val="96425220"/>
+        <c:axId val="44456618"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69453060"/>
+        <c:axId val="96425220"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +2864,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72013789"/>
+        <c:crossAx val="44456618"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3260,7 +2872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72013789"/>
+        <c:axId val="44456618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,7 +2914,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69453060"/>
+        <c:crossAx val="96425220"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3353,7 +2965,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3521,11 +3133,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="76601295"/>
-        <c:axId val="58225046"/>
+        <c:axId val="95453827"/>
+        <c:axId val="22338113"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76601295"/>
+        <c:axId val="95453827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3557,7 +3169,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58225046"/>
+        <c:crossAx val="22338113"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3565,7 +3177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58225046"/>
+        <c:axId val="22338113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,7 +3219,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76601295"/>
+        <c:crossAx val="95453827"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3658,7 +3270,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3964,11 +3576,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50802842"/>
-        <c:axId val="22600202"/>
+        <c:axId val="73488232"/>
+        <c:axId val="4619930"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50802842"/>
+        <c:axId val="73488232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4000,7 +3612,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22600202"/>
+        <c:crossAx val="4619930"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4008,7 +3620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22600202"/>
+        <c:axId val="4619930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4050,7 +3662,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50802842"/>
+        <c:crossAx val="73488232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4101,7 +3713,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4407,11 +4019,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="53403208"/>
-        <c:axId val="69992569"/>
+        <c:axId val="32530543"/>
+        <c:axId val="11791435"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53403208"/>
+        <c:axId val="32530543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4443,7 +4055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69992569"/>
+        <c:crossAx val="11791435"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4451,7 +4063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69992569"/>
+        <c:axId val="11791435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,7 +4105,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53403208"/>
+        <c:crossAx val="32530543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4544,7 +4156,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4862,11 +4474,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="63390090"/>
-        <c:axId val="69489787"/>
+        <c:axId val="35408035"/>
+        <c:axId val="22534688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63390090"/>
+        <c:axId val="35408035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4894,7 +4506,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69489787"/>
+        <c:crossAx val="22534688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4902,7 +4514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69489787"/>
+        <c:axId val="22534688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4939,7 +4551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63390090"/>
+        <c:crossAx val="35408035"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4987,6 +4599,1217 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00185589775108987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0544519756133533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.208966143659152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.250243284687845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.287193360931002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.444295910606053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.436198872378424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.443989564036845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.586991155021025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.584778246516891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.573221874991279</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.688017684376304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.699378698243906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.689023454296935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.771655879417525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.785847432538815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.783409540709852</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.839000816423268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.849566874897893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.852010348374227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.884896770652042</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89156254568632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.894433873901569</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.912379728916562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.915755766861459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91797833590912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.926849076333965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.928615667727108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.929790604498851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.934235313236684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00845491314092381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0679295509776476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.196582312177445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.223259168935107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.258947386499274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.381134019733283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.384786995611964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.388409057731445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.550567181609748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.544238448129288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.529379234540974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.645987651670631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.634736760753265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.631789649042962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.702784814474509</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.695125071917426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.692121284981924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.735975887267825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.734966037800658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.735051909353988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.754319768490292</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.753498836440452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.753649970374314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.761345778983796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.761234145964466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.761174035877135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.764356435643564</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.764117712725305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.764193279692236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.765692597013387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="35780956"/>
+        <c:axId val="71525777"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="35780956"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71525777"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71525777"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35780956"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$3:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>13.2911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2389</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9231</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8522</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$3:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>11.7457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9435</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9851</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0971</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0764</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="35819655"/>
+        <c:axId val="93902740"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="35819655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93902740"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93902740"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35819655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$4:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.2101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6825</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8245</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8545</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8767</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8885</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$4:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.1921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6848</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7327</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7392</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7415</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7424</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="984841"/>
+        <c:axId val="27256602"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="984841"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27256602"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27256602"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984841"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4998,9 +5821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>410040</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5014,7 +5837,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3246120"/>
-          <a:ext cx="4882320" cy="2794320"/>
+          <a:ext cx="4881600" cy="2793600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5035,9 +5858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>478440</xdr:colOff>
+      <xdr:colOff>477720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5051,7 +5874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="518400"/>
-          <a:ext cx="4859640" cy="2793960"/>
+          <a:ext cx="4858920" cy="2793240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5077,9 +5900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>128880</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5093,7 +5916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3714480"/>
-          <a:ext cx="3798360" cy="2935800"/>
+          <a:ext cx="3797640" cy="2935080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5114,9 +5937,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5130,7 +5953,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3677400"/>
-          <a:ext cx="4497120" cy="2834280"/>
+          <a:ext cx="4496400" cy="2833560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5151,9 +5974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>119160</xdr:colOff>
+      <xdr:colOff>118440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5167,7 +5990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="351000"/>
-          <a:ext cx="3759120" cy="2943360"/>
+          <a:ext cx="3758400" cy="2942640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5188,9 +6011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5204,7 +6027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="312840"/>
-          <a:ext cx="4344840" cy="2915640"/>
+          <a:ext cx="4344120" cy="2914920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5225,9 +6048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>808560</xdr:colOff>
+      <xdr:colOff>807840</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5236,7 +6059,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6721560"/>
-        <a:ext cx="5755320" cy="3243240"/>
+        <a:ext cx="5754600" cy="3242520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5255,9 +6078,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5266,7 +6089,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6726960"/>
-        <a:ext cx="5755320" cy="3243240"/>
+        <a:ext cx="5754600" cy="3242520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5290,9 +6113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>51840</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5301,7 +6124,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5879880"/>
-        <a:ext cx="5835960" cy="2980800"/>
+        <a:ext cx="5835240" cy="2980080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5320,9 +6143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>633240</xdr:colOff>
+      <xdr:colOff>632520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5331,7 +6154,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5792400"/>
-        <a:ext cx="6242040" cy="3245400"/>
+        <a:ext cx="6241320" cy="3244680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5355,9 +6178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>51840</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5366,7 +6189,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5673960"/>
-        <a:ext cx="5835960" cy="2980800"/>
+        <a:ext cx="5835240" cy="2980080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5385,9 +6208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>633240</xdr:colOff>
+      <xdr:colOff>632520</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5396,7 +6219,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5586480"/>
-        <a:ext cx="6242040" cy="3245760"/>
+        <a:ext cx="6241320" cy="3245040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5420,9 +6243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5431,7 +6254,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3480840" y="6023880"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5450,9 +6273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284040</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5461,7 +6284,72 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9551880" y="6044760"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758560" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>700560</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1116000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3101400" y="7093800"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1261080</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500040</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9006120" y="6987960"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5485,9 +6373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>295560</xdr:colOff>
+      <xdr:colOff>294840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5501,7 +6389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="572040"/>
-          <a:ext cx="5094360" cy="2611440"/>
+          <a:ext cx="5093640" cy="2610720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5527,9 +6415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533160</xdr:colOff>
+      <xdr:colOff>532440</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5543,7 +6431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4426560"/>
-          <a:ext cx="4890240" cy="3590280"/>
+          <a:ext cx="4889520" cy="3589560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5564,9 +6452,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>527400</xdr:colOff>
+      <xdr:colOff>526680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5580,7 +6468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="353880"/>
-          <a:ext cx="4772880" cy="3734640"/>
+          <a:ext cx="4772160" cy="3733920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5606,9 +6494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>403920</xdr:colOff>
+      <xdr:colOff>403200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5622,7 +6510,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5546160" cy="3070800"/>
+          <a:ext cx="5545440" cy="3070080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5643,9 +6531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>411840</xdr:colOff>
+      <xdr:colOff>411120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5659,7 +6547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3256560"/>
-          <a:ext cx="5652720" cy="2971440"/>
+          <a:ext cx="5652000" cy="2970720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5685,9 +6573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5701,7 +6589,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="305280"/>
-          <a:ext cx="5025960" cy="2870280"/>
+          <a:ext cx="5025240" cy="2869560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5727,9 +6615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>137520</xdr:colOff>
+      <xdr:colOff>136800</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5743,7 +6631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3703680"/>
-          <a:ext cx="5340600" cy="3073320"/>
+          <a:ext cx="5339880" cy="3072600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5764,9 +6652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>137520</xdr:colOff>
+      <xdr:colOff>136800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5780,7 +6668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="342720"/>
-          <a:ext cx="5338800" cy="3068280"/>
+          <a:ext cx="5338080" cy="3067560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5806,9 +6694,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5822,7 +6710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3385440"/>
-          <a:ext cx="6044400" cy="3799440"/>
+          <a:ext cx="6043680" cy="3798720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5843,9 +6731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5859,7 +6747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="183240"/>
-          <a:ext cx="6066000" cy="3168000"/>
+          <a:ext cx="6065280" cy="3167280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5885,9 +6773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>204480</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5901,7 +6789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4275360"/>
-          <a:ext cx="4713120" cy="3499200"/>
+          <a:ext cx="4712400" cy="3498480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5922,9 +6810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>217800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5938,7 +6826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="457200"/>
-          <a:ext cx="4684680" cy="3658680"/>
+          <a:ext cx="4683960" cy="3657960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5964,9 +6852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>275760</xdr:colOff>
+      <xdr:colOff>275040</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5980,7 +6868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4499640"/>
-          <a:ext cx="5013720" cy="3600720"/>
+          <a:ext cx="5013000" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6001,9 +6889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6017,7 +6905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="252720"/>
-          <a:ext cx="4753440" cy="3673080"/>
+          <a:ext cx="4752720" cy="3672360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6038,9 +6926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>909360</xdr:colOff>
+      <xdr:colOff>908640</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6049,7 +6937,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2757240" y="5026320"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6068,9 +6956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>855000</xdr:colOff>
+      <xdr:colOff>854280</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6079,7 +6967,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2702880" y="8618040"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9245,10 +10133,10 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9937,7 +10825,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>26</v>
@@ -10189,6 +11077,946 @@
         <v>147</v>
       </c>
       <c r="B45" s="7" t="n">
+        <v>0.0005</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J63" activeCellId="0" sqref="J63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4658123</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>27.6518</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>17.7005</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <f aca="false">ROUND(I2*100, 2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>13.2911</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>11.7457</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.0547</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <f aca="false">ROUND(I3*100, 2)</f>
+        <v>7.87</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8.1566</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>8.3984</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.2101</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.1921</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <f aca="false">ROUND(I4*100, 2)</f>
+        <v>19.21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7.3802</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>7.5869</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.2509</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <f aca="false">ROUND(I5*100, 2)</f>
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>6.7891</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>7.2459</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.2883</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.2578</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <f aca="false">ROUND(I6*100, 2)</f>
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>4.6905</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>5.2381</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.4462</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.3967</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <f aca="false">ROUND(I7*100, 2)</f>
+        <v>39.67</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4.6939</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5.239</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.4379</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.4017</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <f aca="false">ROUND(I8*100, 2)</f>
+        <v>40.17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3.3363</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>3.8325</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.5329</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <f aca="false">ROUND(I9*100, 2)</f>
+        <v>53.29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3.2541</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>3.8822</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.5254</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <f aca="false">ROUND(I10*100, 2)</f>
+        <v>52.54</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2.4173</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2.9435</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.6722</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.6344</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <f aca="false">ROUND(I11*100, 2)</f>
+        <v>63.44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2.2748</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2.9851</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.6825</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.6251</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <f aca="false">ROUND(I12*100, 2)</f>
+        <v>62.51</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2.528</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.7544</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.6848</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <f aca="false">ROUND(I13*100, 2)</f>
+        <v>68.48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1.6317</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2.5336</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.7666</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <f aca="false">ROUND(I14*100, 2)</f>
+        <v>68.1</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1.3138</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2.2818</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.8153</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.7154</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <f aca="false">ROUND(I15*100, 2)</f>
+        <v>71.54</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1.2389</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2.2657</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.8245</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.7173</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <f aca="false">ROUND(I16*100, 2)</f>
+        <v>71.73</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1.0597</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2.1625</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.8545</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.7319</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <f aca="false">ROUND(I17*100, 2)</f>
+        <v>73.19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1.0168</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2.1495</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.8603</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.7327</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <f aca="false">ROUND(I18*100, 2)</f>
+        <v>73.27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2.1016</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.8767</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.7392</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <f aca="false">ROUND(I19*100, 2)</f>
+        <v>73.92</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2.0971</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.7402</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <f aca="false">ROUND(I20*100, 2)</f>
+        <v>74.02</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.8522</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2.0844</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.8885</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.7415</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <f aca="false">ROUND(I21*100, 2)</f>
+        <v>74.15</v>
+      </c>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.8401</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2.0764</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.8903</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.7424</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <f aca="false">ROUND(I22*100, 2)</f>
+        <v>74.24</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.816</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2.0702</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.8947</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.7432</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <f aca="false">ROUND(I23*100, 2)</f>
+        <v>74.32</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <f aca="false">ROUND(I24*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <f aca="false">ROUND(I25*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <f aca="false">ROUND(I26*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <f aca="false">ROUND(I27*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <f aca="false">ROUND(I28*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">B28/2</f>
+        <v>0.005</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <f aca="false">ROUND(I29*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">B29/2</f>
+        <v>0.0025</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <f aca="false">ROUND(I30*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">B30/2</f>
+        <v>0.00125</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <f aca="false">ROUND(I31*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">B31/2</f>
+        <v>0.000625</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <f aca="false">ROUND(I32*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">B32/2</f>
+        <v>0.0003125</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <f aca="false">ROUND(I33*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">B33/2</f>
+        <v>0.00015625</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <f aca="false">ROUND(I34*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">B34/2</f>
+        <v>7.8125E-005</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <f aca="false">ROUND(I35*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <f aca="false">B35/2</f>
+        <v>3.90625E-005</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <f aca="false">ROUND(I36*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <f aca="false">B36/2</f>
+        <v>1.953125E-005</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <f aca="false">ROUND(I37*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <f aca="false">B37/2</f>
+        <v>9.765625E-006</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">B38/2</f>
+        <v>4.8828125E-006</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <f aca="false">MAX(J2:J38)</f>
+        <v>74.32</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <f aca="false">B39/2</f>
+        <v>2.44140625E-006</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">B40/2</f>
+        <v>1.220703125E-006</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <f aca="false">B41/2</f>
+        <v>6.103515625E-007</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <f aca="false">B42/2</f>
+        <v>3.0517578125E-007</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <f aca="false">B43/2</f>
+        <v>1.52587890625E-007</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <f aca="false">B44/2</f>
+        <v>7.62939453125E-008</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="7" t="n">
         <v>0.0005</v>
       </c>
     </row>

--- a/records/outputs.xlsx
+++ b/records/outputs.xlsx
@@ -1068,7 +1068,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1350,11 +1350,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="71816128"/>
-        <c:axId val="49839527"/>
+        <c:axId val="62734379"/>
+        <c:axId val="38329471"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71816128"/>
+        <c:axId val="62734379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1382,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49839527"/>
+        <c:crossAx val="38329471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1390,7 +1390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49839527"/>
+        <c:axId val="38329471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1427,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71816128"/>
+        <c:crossAx val="62734379"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1475,7 +1475,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1625,11 +1625,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="37583646"/>
-        <c:axId val="38756697"/>
+        <c:axId val="20987183"/>
+        <c:axId val="52727873"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37583646"/>
+        <c:axId val="20987183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1657,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38756697"/>
+        <c:crossAx val="52727873"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1665,7 +1665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38756697"/>
+        <c:axId val="52727873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,7 +1702,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37583646"/>
+        <c:crossAx val="20987183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1750,7 +1750,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2068,11 +2068,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="34709333"/>
-        <c:axId val="39306229"/>
+        <c:axId val="64660627"/>
+        <c:axId val="7409867"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34709333"/>
+        <c:axId val="64660627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +2104,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39306229"/>
+        <c:crossAx val="7409867"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2112,7 +2112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39306229"/>
+        <c:axId val="7409867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2154,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34709333"/>
+        <c:crossAx val="64660627"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2205,7 +2205,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2523,11 +2523,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="18572273"/>
-        <c:axId val="62737010"/>
+        <c:axId val="71437249"/>
+        <c:axId val="66433594"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18572273"/>
+        <c:axId val="71437249"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2559,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62737010"/>
+        <c:crossAx val="66433594"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2567,7 +2567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62737010"/>
+        <c:axId val="66433594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18572273"/>
+        <c:crossAx val="71437249"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2660,7 +2660,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2828,11 +2828,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="96425220"/>
-        <c:axId val="44456618"/>
+        <c:axId val="3164343"/>
+        <c:axId val="17148941"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96425220"/>
+        <c:axId val="3164343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2864,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44456618"/>
+        <c:crossAx val="17148941"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2872,7 +2872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44456618"/>
+        <c:axId val="17148941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2914,7 +2914,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96425220"/>
+        <c:crossAx val="3164343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2965,7 +2965,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3133,11 +3133,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="95453827"/>
-        <c:axId val="22338113"/>
+        <c:axId val="90146142"/>
+        <c:axId val="7569363"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95453827"/>
+        <c:axId val="90146142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +3169,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22338113"/>
+        <c:crossAx val="7569363"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,7 +3177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22338113"/>
+        <c:axId val="7569363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,7 +3219,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95453827"/>
+        <c:crossAx val="90146142"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3270,7 +3270,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3576,11 +3576,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="73488232"/>
-        <c:axId val="4619930"/>
+        <c:axId val="67758152"/>
+        <c:axId val="75999144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73488232"/>
+        <c:axId val="67758152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3612,7 +3612,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4619930"/>
+        <c:crossAx val="75999144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3620,7 +3620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4619930"/>
+        <c:axId val="75999144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,7 +3662,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73488232"/>
+        <c:crossAx val="67758152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3713,7 +3713,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4019,11 +4019,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="32530543"/>
-        <c:axId val="11791435"/>
+        <c:axId val="5422440"/>
+        <c:axId val="42032538"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32530543"/>
+        <c:axId val="5422440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4055,7 +4055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11791435"/>
+        <c:crossAx val="42032538"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4063,7 +4063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11791435"/>
+        <c:axId val="42032538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +4105,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32530543"/>
+        <c:crossAx val="5422440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4156,7 +4156,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4474,11 +4474,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="35408035"/>
-        <c:axId val="22534688"/>
+        <c:axId val="70393843"/>
+        <c:axId val="82119870"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35408035"/>
+        <c:axId val="70393843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4506,7 +4506,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22534688"/>
+        <c:crossAx val="82119870"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4514,7 +4514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22534688"/>
+        <c:axId val="82119870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,7 +4551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35408035"/>
+        <c:crossAx val="70393843"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4599,7 +4599,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4917,11 +4917,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="35780956"/>
-        <c:axId val="71525777"/>
+        <c:axId val="59715323"/>
+        <c:axId val="85684977"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35780956"/>
+        <c:axId val="59715323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,7 +4949,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71525777"/>
+        <c:crossAx val="85684977"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4957,7 +4957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71525777"/>
+        <c:axId val="85684977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4994,7 +4994,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35780956"/>
+        <c:crossAx val="59715323"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5042,7 +5042,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5092,6 +5092,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5107,67 +5108,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>13.2911</c:v>
+                  <c:v>13.2911220875306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1566</c:v>
+                  <c:v>8.1565739873096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3802</c:v>
+                  <c:v>7.38015146298086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7891</c:v>
+                  <c:v>6.78909771020646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6905</c:v>
+                  <c:v>4.69054519062976</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6939</c:v>
+                  <c:v>4.69390932958608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3363</c:v>
+                  <c:v>3.33633438255402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2541</c:v>
+                  <c:v>3.25414069466926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4173</c:v>
+                  <c:v>2.41731034464568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2748</c:v>
+                  <c:v>2.27476635912415</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.75</c:v>
+                  <c:v>1.74998132947662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6317</c:v>
+                  <c:v>1.63165559303129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3138</c:v>
+                  <c:v>1.31384694383829</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2389</c:v>
+                  <c:v>1.23888945918424</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0597</c:v>
+                  <c:v>1.05971511533125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0168</c:v>
+                  <c:v>1.01675930265443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9231</c:v>
+                  <c:v>0.923109705943105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9</c:v>
+                  <c:v>0.900009032063832</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8522</c:v>
+                  <c:v>0.852151367398607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8401</c:v>
+                  <c:v>0.840115406212541</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.816</c:v>
+                  <c:v>0.815964254548281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80970306874589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.796955464202241</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.794058374259812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.787961874025212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.786071386246339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78297261371865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.782319134776835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.780335663492004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.780088511123353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.779602193349441</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.779269402959451</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.778507991293121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.778189962887891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.778630219977238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5214,6 +5257,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5229,67 +5273,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>11.7457</c:v>
+                  <c:v>11.7456774833819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3984</c:v>
+                  <c:v>8.39839814689176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5869</c:v>
+                  <c:v>7.58690079368765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2459</c:v>
+                  <c:v>7.24594488736093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2381</c:v>
+                  <c:v>5.23813637488704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.239</c:v>
+                  <c:v>5.23897833326614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8325</c:v>
+                  <c:v>3.83250248780678</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8822</c:v>
+                  <c:v>3.88216276905824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9435</c:v>
+                  <c:v>2.94347008720683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9851</c:v>
+                  <c:v>2.9850573557513</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.528</c:v>
+                  <c:v>2.52796452652087</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5336</c:v>
+                  <c:v>2.5336488031976</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2818</c:v>
+                  <c:v>2.28182091310404</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2657</c:v>
+                  <c:v>2.26567945803048</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1625</c:v>
+                  <c:v>2.1625007215685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1495</c:v>
+                  <c:v>2.14947701773318</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1016</c:v>
+                  <c:v>2.10163072629201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0971</c:v>
+                  <c:v>2.09711526925457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0844</c:v>
+                  <c:v>2.08435653188861</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0764</c:v>
+                  <c:v>2.07641156525835</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0702</c:v>
+                  <c:v>2.07020478432119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.07095944476353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.06679461300688</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.06628478329558</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.06339049517884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.06666638363244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.06510078900175</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.06472995565963</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.06642012585873</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.06360308980986</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.06381776873721</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.06553455828212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0656562489591</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.06184021668558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.06403619279207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5304,11 +5390,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="35819655"/>
-        <c:axId val="93902740"/>
+        <c:axId val="35165998"/>
+        <c:axId val="31173157"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35819655"/>
+        <c:axId val="35165998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5336,7 +5422,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93902740"/>
+        <c:crossAx val="31173157"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5344,7 +5430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93902740"/>
+        <c:axId val="31173157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5359,7 +5445,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5381,7 +5467,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35819655"/>
+        <c:crossAx val="35165998"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5422,14 +5508,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5479,6 +5565,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5494,64 +5581,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.2101</c:v>
+                  <c:v>0.210061434616475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2509</c:v>
+                  <c:v>0.250920381449781</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2883</c:v>
+                  <c:v>0.288292730784481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4462</c:v>
+                  <c:v>0.446177999164041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4379</c:v>
+                  <c:v>0.437912438121535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5729</c:v>
+                  <c:v>0.572937640332812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5719</c:v>
+                  <c:v>0.571917272257517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6722</c:v>
+                  <c:v>0.672208956268437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6825</c:v>
+                  <c:v>0.682463945241463</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7544</c:v>
+                  <c:v>0.754399143174193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7666</c:v>
+                  <c:v>0.766619086700802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8153</c:v>
+                  <c:v>0.815286328849625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8245</c:v>
+                  <c:v>0.824516656172454</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.8545</c:v>
+                  <c:v>0.854539693348587</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8603</c:v>
+                  <c:v>0.860296089218769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8767</c:v>
+                  <c:v>0.876703771025368</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88</c:v>
+                  <c:v>0.879958300800558</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8885</c:v>
+                  <c:v>0.888461296535107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8903</c:v>
+                  <c:v>0.890292720909259</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8947</c:v>
+                  <c:v>0.894677534277218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.895653678531031</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.897941295238447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.898267606930946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.899259422733148</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.899724202216214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.900192631237947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.900291168781932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.900630361199135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.900682098776696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.900713871230966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.90090815549525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.900886258263253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90089291330435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.900819707852283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5598,6 +5727,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5613,64 +5743,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.1921</c:v>
+                  <c:v>0.19214618773239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.242</c:v>
+                  <c:v>0.241996341871828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2578</c:v>
+                  <c:v>0.257829338874911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3967</c:v>
+                  <c:v>0.396716271800641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4017</c:v>
+                  <c:v>0.401734605377277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5329</c:v>
+                  <c:v>0.532863902175127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5254</c:v>
+                  <c:v>0.525420555932436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6344</c:v>
+                  <c:v>0.634377817660344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6251</c:v>
+                  <c:v>0.625119146780246</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6848</c:v>
+                  <c:v>0.684834224966295</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.681</c:v>
+                  <c:v>0.680952830755756</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7154</c:v>
+                  <c:v>0.715383888779164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7173</c:v>
+                  <c:v>0.717297106987368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7319</c:v>
+                  <c:v>0.731859205001159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7327</c:v>
+                  <c:v>0.732695593930599</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7392</c:v>
+                  <c:v>0.739244158587585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7402</c:v>
+                  <c:v>0.740156114483955</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7415</c:v>
+                  <c:v>0.741461362094579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7424</c:v>
+                  <c:v>0.74244888495788</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7432</c:v>
+                  <c:v>0.743220011506788</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74296067941573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.743633912393841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.743747262844238</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.743714631653972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74417662061089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.743742110551038</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.743937897692631</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.744252187577821</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.743991138055696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.744068422453694</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74356865001331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.743764437154904</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.744300275647686</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.744178338041957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5685,11 +5857,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="984841"/>
-        <c:axId val="27256602"/>
+        <c:axId val="77328892"/>
+        <c:axId val="58168062"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="984841"/>
+        <c:axId val="77328892"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5717,7 +5889,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27256602"/>
+        <c:crossAx val="58168062"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5725,7 +5897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27256602"/>
+        <c:axId val="58168062"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5740,7 +5912,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5762,7 +5934,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="984841"/>
+        <c:crossAx val="77328892"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5803,7 +5975,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -5821,9 +5993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
+      <xdr:colOff>408960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5837,7 +6009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3246120"/>
-          <a:ext cx="4881600" cy="2793600"/>
+          <a:ext cx="4881240" cy="2793240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5858,9 +6030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>477720</xdr:colOff>
+      <xdr:colOff>477360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5874,7 +6046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="518400"/>
-          <a:ext cx="4858920" cy="2793240"/>
+          <a:ext cx="4858560" cy="2792880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5900,9 +6072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5916,7 +6088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3714480"/>
-          <a:ext cx="3797640" cy="2935080"/>
+          <a:ext cx="3797280" cy="2934720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5937,9 +6109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5953,7 +6125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3677400"/>
-          <a:ext cx="4496400" cy="2833560"/>
+          <a:ext cx="4496040" cy="2833200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5974,9 +6146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>118440</xdr:colOff>
+      <xdr:colOff>118080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5990,7 +6162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="351000"/>
-          <a:ext cx="3758400" cy="2942640"/>
+          <a:ext cx="3758040" cy="2942280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6011,9 +6183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6027,7 +6199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="312840"/>
-          <a:ext cx="4344120" cy="2914920"/>
+          <a:ext cx="4343760" cy="2914560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6048,9 +6220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>807840</xdr:colOff>
+      <xdr:colOff>807480</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6059,7 +6231,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6721560"/>
-        <a:ext cx="5754600" cy="3242520"/>
+        <a:ext cx="5754240" cy="3242160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6078,9 +6250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
+      <xdr:colOff>243720</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6089,7 +6261,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6726960"/>
-        <a:ext cx="5754600" cy="3242520"/>
+        <a:ext cx="5754240" cy="3242160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6113,9 +6285,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>50760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6124,7 +6296,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5879880"/>
-        <a:ext cx="5835240" cy="2980080"/>
+        <a:ext cx="5834880" cy="2979720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6143,9 +6315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>632520</xdr:colOff>
+      <xdr:colOff>632160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6154,7 +6326,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5792400"/>
-        <a:ext cx="6241320" cy="3244680"/>
+        <a:ext cx="6240960" cy="3244320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6178,9 +6350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>50760</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6189,7 +6361,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5673960"/>
-        <a:ext cx="5835240" cy="2980080"/>
+        <a:ext cx="5834880" cy="2979720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6208,9 +6380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>632520</xdr:colOff>
+      <xdr:colOff>632160</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6219,7 +6391,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5586480"/>
-        <a:ext cx="6241320" cy="3245040"/>
+        <a:ext cx="6240960" cy="3244680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6243,9 +6415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>81720</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6254,7 +6426,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3480840" y="6023880"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6273,9 +6445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>284040</xdr:colOff>
+      <xdr:colOff>283680</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6284,7 +6456,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9551880" y="6044760"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6308,9 +6480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1116000</xdr:colOff>
+      <xdr:colOff>1115640</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6319,7 +6491,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3101400" y="7093800"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6338,9 +6510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6349,7 +6521,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9006120" y="6987960"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6373,9 +6545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>294480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6389,7 +6561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="572040"/>
-          <a:ext cx="5093640" cy="2610720"/>
+          <a:ext cx="5093280" cy="2610360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6415,9 +6587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6431,7 +6603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4426560"/>
-          <a:ext cx="4889520" cy="3589560"/>
+          <a:ext cx="4889160" cy="3589200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6452,9 +6624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>526680</xdr:colOff>
+      <xdr:colOff>526320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6468,7 +6640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="353880"/>
-          <a:ext cx="4772160" cy="3733920"/>
+          <a:ext cx="4771800" cy="3733560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6494,9 +6666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>403200</xdr:colOff>
+      <xdr:colOff>402840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6510,7 +6682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5545440" cy="3070080"/>
+          <a:ext cx="5545080" cy="3069720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6531,9 +6703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>411120</xdr:colOff>
+      <xdr:colOff>410760</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6547,7 +6719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3256560"/>
-          <a:ext cx="5652000" cy="2970720"/>
+          <a:ext cx="5651640" cy="2970360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6573,9 +6745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>203040</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6589,7 +6761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="305280"/>
-          <a:ext cx="5025240" cy="2869560"/>
+          <a:ext cx="5024880" cy="2869200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6615,9 +6787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>136800</xdr:colOff>
+      <xdr:colOff>136440</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6631,7 +6803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3703680"/>
-          <a:ext cx="5339880" cy="3072600"/>
+          <a:ext cx="5339520" cy="3072240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6652,9 +6824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>136800</xdr:colOff>
+      <xdr:colOff>136440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6668,7 +6840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="342720"/>
-          <a:ext cx="5338080" cy="3067560"/>
+          <a:ext cx="5337720" cy="3067200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6694,9 +6866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6710,7 +6882,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3385440"/>
-          <a:ext cx="6043680" cy="3798720"/>
+          <a:ext cx="6043320" cy="3798360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6731,9 +6903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6747,7 +6919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="183240"/>
-          <a:ext cx="6065280" cy="3167280"/>
+          <a:ext cx="6064920" cy="3166920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6773,9 +6945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6789,7 +6961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4275360"/>
-          <a:ext cx="4712400" cy="3498480"/>
+          <a:ext cx="4712040" cy="3498120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6810,9 +6982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6826,7 +6998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="457200"/>
-          <a:ext cx="4683960" cy="3657960"/>
+          <a:ext cx="4683600" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6852,9 +7024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:colOff>274680</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6868,7 +7040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4499640"/>
-          <a:ext cx="5013000" cy="3600000"/>
+          <a:ext cx="5012640" cy="3599640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6889,9 +7061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>242640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6905,7 +7077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="252720"/>
-          <a:ext cx="4752720" cy="3672360"/>
+          <a:ext cx="4752360" cy="3672000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6926,9 +7098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>908640</xdr:colOff>
+      <xdr:colOff>908280</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6937,7 +7109,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2757240" y="5026320"/>
-        <a:ext cx="5757840" cy="3237840"/>
+        <a:ext cx="5757480" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6956,9 +7128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>854280</xdr:colOff>
+      <xdr:colOff>853920</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6967,7 +7139,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2702880" y="8618040"/>
-        <a:ext cx="5757840" cy="3237840"/>
+        <a:ext cx="5757480" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11100,9 +11272,9 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J63" activeCellId="0" sqref="J63"/>
+      <selection pane="bottomLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11156,16 +11328,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>27.6518</v>
+        <v>27.6517811364839</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>17.7005</v>
+        <v>17.7005267737313</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.002</v>
+        <v>0.00201347194996783</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.0076</v>
+        <v>0.00760134990081836</v>
       </c>
       <c r="J2" s="4" t="n">
         <f aca="false">ROUND(I2*100, 2)</f>
@@ -11184,16 +11356,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>13.2911</v>
+        <v>13.2911220875306</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>11.7457</v>
+        <v>11.7456774833819</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.0547</v>
+        <v>0.0546872635179449</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.0787</v>
+        <v>0.0786549079886306</v>
       </c>
       <c r="J3" s="4" t="n">
         <f aca="false">ROUND(I3*100, 2)</f>
@@ -11212,16 +11384,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>8.1566</v>
+        <v>8.1565739873096</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>8.3984</v>
+        <v>8.39839814689176</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.2101</v>
+        <v>0.210061434616475</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.1921</v>
+        <v>0.19214618773239</v>
       </c>
       <c r="J4" s="4" t="n">
         <f aca="false">ROUND(I4*100, 2)</f>
@@ -11234,16 +11406,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>7.3802</v>
+        <v>7.38015146298086</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>7.5869</v>
+        <v>7.58690079368765</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.2509</v>
+        <v>0.250920381449781</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.242</v>
+        <v>0.241996341871828</v>
       </c>
       <c r="J5" s="4" t="n">
         <f aca="false">ROUND(I5*100, 2)</f>
@@ -11258,16 +11430,16 @@
         <v>5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>6.7891</v>
+        <v>6.78909771020646</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>7.2459</v>
+        <v>7.24594488736093</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.2883</v>
+        <v>0.288292730784481</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.2578</v>
+        <v>0.257829338874911</v>
       </c>
       <c r="J6" s="4" t="n">
         <f aca="false">ROUND(I6*100, 2)</f>
@@ -11282,16 +11454,16 @@
         <v>6</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4.6905</v>
+        <v>4.69054519062976</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>5.2381</v>
+        <v>5.23813637488704</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.4462</v>
+        <v>0.446177999164041</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.3967</v>
+        <v>0.396716271800641</v>
       </c>
       <c r="J7" s="4" t="n">
         <f aca="false">ROUND(I7*100, 2)</f>
@@ -11306,16 +11478,16 @@
         <v>7</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4.6939</v>
+        <v>4.69390932958608</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>5.239</v>
+        <v>5.23897833326614</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.4379</v>
+        <v>0.437912438121535</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.4017</v>
+        <v>0.401734605377277</v>
       </c>
       <c r="J8" s="4" t="n">
         <f aca="false">ROUND(I8*100, 2)</f>
@@ -11330,16 +11502,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3.3363</v>
+        <v>3.33633438255402</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>3.8325</v>
+        <v>3.83250248780678</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.5729</v>
+        <v>0.572937640332812</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.5329</v>
+        <v>0.532863902175127</v>
       </c>
       <c r="J9" s="4" t="n">
         <f aca="false">ROUND(I9*100, 2)</f>
@@ -11351,16 +11523,16 @@
         <v>9</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3.2541</v>
+        <v>3.25414069466926</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>3.8822</v>
+        <v>3.88216276905824</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.5719</v>
+        <v>0.571917272257517</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.5254</v>
+        <v>0.525420555932436</v>
       </c>
       <c r="J10" s="4" t="n">
         <f aca="false">ROUND(I10*100, 2)</f>
@@ -11378,16 +11550,16 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2.4173</v>
+        <v>2.41731034464568</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>2.9435</v>
+        <v>2.94347008720683</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.6722</v>
+        <v>0.672208956268437</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.6344</v>
+        <v>0.634377817660344</v>
       </c>
       <c r="J11" s="4" t="n">
         <f aca="false">ROUND(I11*100, 2)</f>
@@ -11399,16 +11571,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2.2748</v>
+        <v>2.27476635912415</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>2.9851</v>
+        <v>2.9850573557513</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.6825</v>
+        <v>0.682463945241463</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.6251</v>
+        <v>0.625119146780246</v>
       </c>
       <c r="J12" s="4" t="n">
         <f aca="false">ROUND(I12*100, 2)</f>
@@ -11427,16 +11599,16 @@
         <v>12</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1.75</v>
+        <v>1.74998132947662</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>2.528</v>
+        <v>2.52796452652087</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.7544</v>
+        <v>0.754399143174193</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.6848</v>
+        <v>0.684834224966295</v>
       </c>
       <c r="J13" s="4" t="n">
         <f aca="false">ROUND(I13*100, 2)</f>
@@ -11448,16 +11620,16 @@
         <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1.6317</v>
+        <v>1.63165559303129</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>2.5336</v>
+        <v>2.5336488031976</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.7666</v>
+        <v>0.766619086700802</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.681</v>
+        <v>0.680952830755756</v>
       </c>
       <c r="J14" s="4" t="n">
         <f aca="false">ROUND(I14*100, 2)</f>
@@ -11476,16 +11648,16 @@
         <v>14</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1.3138</v>
+        <v>1.31384694383829</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>2.2818</v>
+        <v>2.28182091310404</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.8153</v>
+        <v>0.815286328849625</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.7154</v>
+        <v>0.715383888779164</v>
       </c>
       <c r="J15" s="4" t="n">
         <f aca="false">ROUND(I15*100, 2)</f>
@@ -11503,16 +11675,16 @@
         <v>15</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1.2389</v>
+        <v>1.23888945918424</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2.2657</v>
+        <v>2.26567945803048</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.8245</v>
+        <v>0.824516656172454</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.7173</v>
+        <v>0.717297106987368</v>
       </c>
       <c r="J16" s="4" t="n">
         <f aca="false">ROUND(I16*100, 2)</f>
@@ -11525,16 +11697,16 @@
         <v>16</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1.0597</v>
+        <v>1.05971511533125</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>2.1625</v>
+        <v>2.1625007215685</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.8545</v>
+        <v>0.854539693348587</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.7319</v>
+        <v>0.731859205001159</v>
       </c>
       <c r="J17" s="4" t="n">
         <f aca="false">ROUND(I17*100, 2)</f>
@@ -11552,16 +11724,16 @@
         <v>17</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1.0168</v>
+        <v>1.01675930265443</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2.1495</v>
+        <v>2.14947701773318</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.8603</v>
+        <v>0.860296089218769</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.7327</v>
+        <v>0.732695593930599</v>
       </c>
       <c r="J18" s="4" t="n">
         <f aca="false">ROUND(I18*100, 2)</f>
@@ -11573,16 +11745,16 @@
         <v>18</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.9231</v>
+        <v>0.923109705943105</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>2.1016</v>
+        <v>2.10163072629201</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.8767</v>
+        <v>0.876703771025368</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.7392</v>
+        <v>0.739244158587585</v>
       </c>
       <c r="J19" s="4" t="n">
         <f aca="false">ROUND(I19*100, 2)</f>
@@ -11600,16 +11772,16 @@
         <v>19</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.9</v>
+        <v>0.900009032063832</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2.0971</v>
+        <v>2.09711526925457</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.88</v>
+        <v>0.879958300800558</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.7402</v>
+        <v>0.740156114483955</v>
       </c>
       <c r="J20" s="4" t="n">
         <f aca="false">ROUND(I20*100, 2)</f>
@@ -11621,16 +11793,16 @@
         <v>20</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.8522</v>
+        <v>0.852151367398607</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>2.0844</v>
+        <v>2.08435653188861</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.8885</v>
+        <v>0.888461296535107</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.7415</v>
+        <v>0.741461362094579</v>
       </c>
       <c r="J21" s="4" t="n">
         <f aca="false">ROUND(I21*100, 2)</f>
@@ -11646,16 +11818,16 @@
         <v>21</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.8401</v>
+        <v>0.840115406212541</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>2.0764</v>
+        <v>2.07641156525835</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.8903</v>
+        <v>0.890292720909259</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.7424</v>
+        <v>0.74244888495788</v>
       </c>
       <c r="J22" s="4" t="n">
         <f aca="false">ROUND(I22*100, 2)</f>
@@ -11673,16 +11845,16 @@
         <v>22</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.816</v>
+        <v>0.815964254548281</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>2.0702</v>
+        <v>2.07020478432119</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.8947</v>
+        <v>0.894677534277218</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.7432</v>
+        <v>0.743220011506788</v>
       </c>
       <c r="J23" s="4" t="n">
         <f aca="false">ROUND(I23*100, 2)</f>
@@ -11700,9 +11872,21 @@
       <c r="E24" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="F24" s="0" t="n">
+        <v>0.80970306874589</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2.07095944476353</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.895653678531031</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.74296067941573</v>
+      </c>
       <c r="J24" s="4" t="n">
         <f aca="false">ROUND(I24*100, 2)</f>
-        <v>0</v>
+        <v>74.3</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -11710,9 +11894,21 @@
       <c r="E25" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="F25" s="0" t="n">
+        <v>0.796955464202241</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2.06679461300688</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.897941295238447</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.743633912393841</v>
+      </c>
       <c r="J25" s="4" t="n">
         <f aca="false">ROUND(I25*100, 2)</f>
-        <v>0</v>
+        <v>74.36</v>
       </c>
       <c r="K25" s="6"/>
     </row>
@@ -11720,9 +11916,21 @@
       <c r="E26" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="F26" s="0" t="n">
+        <v>0.794058374259812</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2.06628478329558</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.898267606930946</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.743747262844238</v>
+      </c>
       <c r="J26" s="4" t="n">
         <f aca="false">ROUND(I26*100, 2)</f>
-        <v>0</v>
+        <v>74.37</v>
       </c>
       <c r="K26" s="6"/>
     </row>
@@ -11736,9 +11944,21 @@
       <c r="E27" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="F27" s="0" t="n">
+        <v>0.787961874025212</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2.06339049517884</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.899259422733148</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.743714631653972</v>
+      </c>
       <c r="J27" s="4" t="n">
         <f aca="false">ROUND(I27*100, 2)</f>
-        <v>0</v>
+        <v>74.37</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -11752,9 +11972,21 @@
       <c r="E28" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="F28" s="0" t="n">
+        <v>0.786071386246339</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2.06666638363244</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.899724202216214</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.74417662061089</v>
+      </c>
       <c r="J28" s="4" t="n">
         <f aca="false">ROUND(I28*100, 2)</f>
-        <v>0</v>
+        <v>74.42</v>
       </c>
       <c r="K28" s="6"/>
     </row>
@@ -11769,9 +12001,21 @@
       <c r="E29" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="F29" s="0" t="n">
+        <v>0.78297261371865</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2.06510078900175</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.900192631237947</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.743742110551038</v>
+      </c>
       <c r="J29" s="4" t="n">
         <f aca="false">ROUND(I29*100, 2)</f>
-        <v>0</v>
+        <v>74.37</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11785,9 +12029,21 @@
       <c r="E30" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="F30" s="0" t="n">
+        <v>0.782319134776835</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2.06472995565963</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.900291168781932</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.743937897692631</v>
+      </c>
       <c r="J30" s="4" t="n">
         <f aca="false">ROUND(I30*100, 2)</f>
-        <v>0</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11801,9 +12057,21 @@
       <c r="E31" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="F31" s="0" t="n">
+        <v>0.780335663492004</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2.06642012585873</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.900630361199135</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.744252187577821</v>
+      </c>
       <c r="J31" s="4" t="n">
         <f aca="false">ROUND(I31*100, 2)</f>
-        <v>0</v>
+        <v>74.43</v>
       </c>
       <c r="K31" s="9"/>
     </row>
@@ -11818,9 +12086,21 @@
       <c r="E32" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="F32" s="0" t="n">
+        <v>0.780088511123353</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2.06360308980986</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.900682098776696</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.743991138055696</v>
+      </c>
       <c r="J32" s="4" t="n">
         <f aca="false">ROUND(I32*100, 2)</f>
-        <v>0</v>
+        <v>74.4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11834,9 +12114,21 @@
       <c r="E33" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="F33" s="0" t="n">
+        <v>0.779602193349441</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2.06381776873721</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.900713871230966</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.744068422453694</v>
+      </c>
       <c r="J33" s="4" t="n">
         <f aca="false">ROUND(I33*100, 2)</f>
-        <v>0</v>
+        <v>74.41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11850,9 +12142,21 @@
       <c r="E34" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="F34" s="0" t="n">
+        <v>0.779269402959451</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>2.06553455828212</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.90090815549525</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.74356865001331</v>
+      </c>
       <c r="J34" s="4" t="n">
         <f aca="false">ROUND(I34*100, 2)</f>
-        <v>0</v>
+        <v>74.36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11866,9 +12170,21 @@
       <c r="E35" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="F35" s="0" t="n">
+        <v>0.778507991293121</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>2.0656562489591</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.900886258263253</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.743764437154904</v>
+      </c>
       <c r="J35" s="4" t="n">
         <f aca="false">ROUND(I35*100, 2)</f>
-        <v>0</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11882,9 +12198,21 @@
       <c r="E36" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="F36" s="0" t="n">
+        <v>0.778189962887891</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2.06184021668558</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.90089291330435</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.744300275647686</v>
+      </c>
       <c r="J36" s="4" t="n">
         <f aca="false">ROUND(I36*100, 2)</f>
-        <v>0</v>
+        <v>74.43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11898,9 +12226,21 @@
       <c r="E37" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="F37" s="0" t="n">
+        <v>0.778630219977238</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>2.06403619279207</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.900819707852283</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.744178338041957</v>
+      </c>
       <c r="J37" s="4" t="n">
         <f aca="false">ROUND(I37*100, 2)</f>
-        <v>0</v>
+        <v>74.42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11925,7 +12265,7 @@
       </c>
       <c r="J39" s="3" t="n">
         <f aca="false">MAX(J2:J38)</f>
-        <v>74.32</v>
+        <v>74.43</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/records/outputs.xlsx
+++ b/records/outputs.xlsx
@@ -1068,7 +1068,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1350,11 +1350,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="62734379"/>
-        <c:axId val="38329471"/>
+        <c:axId val="70254276"/>
+        <c:axId val="31936107"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62734379"/>
+        <c:axId val="70254276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1382,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38329471"/>
+        <c:crossAx val="31936107"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1390,7 +1390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38329471"/>
+        <c:axId val="31936107"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1427,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62734379"/>
+        <c:crossAx val="70254276"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1475,7 +1475,1390 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00185589775108987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0544519756133533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.208966143659152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.250243284687845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.287193360931002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.444295910606053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.436198872378424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.443989564036845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.586991155021025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.584778246516891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.573221874991279</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.688017684376304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.699378698243906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.689023454296935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.771655879417525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.785847432538815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.783409540709852</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.839000816423268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.849566874897893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.852010348374227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.884896770652042</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89156254568632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.894433873901569</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.912379728916562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.915755766861459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91797833590912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.926849076333965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.928615667727108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.929790604498851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.934235313236684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00845491314092381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0679295509776476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.196582312177445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.223259168935107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.258947386499274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.381134019733283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.384786995611964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.388409057731445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.550567181609748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.544238448129288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.529379234540974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.645987651670631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.634736760753265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.631789649042962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.702784814474509</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.695125071917426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.692121284981924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.735975887267825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.734966037800658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.735051909353988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.754319768490292</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.753498836440452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.753649970374314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.761345778983796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.761234145964466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.761174035877135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.764356435643564</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.764117712725305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.764193279692236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.765692597013387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="58413733"/>
+        <c:axId val="15958281"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="58413733"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15958281"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15958281"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58413733"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$3:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>13.2911220875306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1565739873096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.38015146298086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.78909771020646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.69054519062976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.69390932958608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.33633438255402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.25414069466926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.41731034464568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.27476635912415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.74998132947662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.63165559303129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31384694383829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.23888945918424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05971511533125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.01675930265443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.923109705943105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.900009032063832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.852151367398607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.840115406212541</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.815964254548281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80970306874589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.796955464202241</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.794058374259812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.787961874025212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.786071386246339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78297261371865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.782319134776835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.780335663492004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.780088511123353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.779602193349441</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.779269402959451</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.778507991293121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.778189962887891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.778630219977238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$3:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>11.7456774833819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.39839814689176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.58690079368765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.24594488736093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23813637488704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.23897833326614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.83250248780678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.88216276905824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.94347008720683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9850573557513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.52796452652087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5336488031976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.28182091310404</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.26567945803048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1625007215685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.14947701773318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.10163072629201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.09711526925457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.08435653188861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.07641156525835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.07020478432119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.07095944476353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.06679461300688</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.06628478329558</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.06339049517884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.06666638363244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.06510078900175</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.06472995565963</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.06642012585873</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.06360308980986</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.06381776873721</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.06553455828212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0656562489591</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.06184021668558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.06403619279207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="84824663"/>
+        <c:axId val="79756512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84824663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79756512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79756512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84824663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$4:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.210061434616475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.250920381449781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.288292730784481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.446177999164041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.437912438121535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.572937640332812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.571917272257517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.672208956268437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.682463945241463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.754399143174193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.766619086700802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.815286328849625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.824516656172454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.854539693348587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.860296089218769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.876703771025368</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.879958300800558</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.888461296535107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.890292720909259</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.894677534277218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.895653678531031</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.897941295238447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.898267606930946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.899259422733148</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.899724202216214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.900192631237947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.900291168781932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.900630361199135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.900682098776696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.900713871230966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.90090815549525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.900886258263253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90089291330435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.900819707852283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$4:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.19214618773239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.241996341871828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.257829338874911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.396716271800641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.401734605377277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.532863902175127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.525420555932436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.634377817660344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625119146780246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.684834224966295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.680952830755756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.715383888779164</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.717297106987368</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.731859205001159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.732695593930599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.739244158587585</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.740156114483955</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.741461362094579</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74244888495788</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.743220011506788</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74296067941573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.743633912393841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.743747262844238</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.743714631653972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74417662061089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.743742110551038</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.743937897692631</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.744252187577821</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.743991138055696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.744068422453694</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74356865001331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.743764437154904</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.744300275647686</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.744178338041957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="11411197"/>
+        <c:axId val="79403305"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="11411197"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79403305"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79403305"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11411197"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1625,11 +3008,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="20987183"/>
-        <c:axId val="52727873"/>
+        <c:axId val="53987593"/>
+        <c:axId val="47881637"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20987183"/>
+        <c:axId val="53987593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +3040,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52727873"/>
+        <c:crossAx val="47881637"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1665,7 +3048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52727873"/>
+        <c:axId val="47881637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,7 +3085,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20987183"/>
+        <c:crossAx val="53987593"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1750,7 +3133,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2068,11 +3451,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64660627"/>
-        <c:axId val="7409867"/>
+        <c:axId val="56820492"/>
+        <c:axId val="61040897"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64660627"/>
+        <c:axId val="56820492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +3487,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7409867"/>
+        <c:crossAx val="61040897"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2112,7 +3495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7409867"/>
+        <c:axId val="61040897"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +3537,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64660627"/>
+        <c:crossAx val="56820492"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2205,7 +3588,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2523,11 +3906,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="71437249"/>
-        <c:axId val="66433594"/>
+        <c:axId val="57991834"/>
+        <c:axId val="70808379"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71437249"/>
+        <c:axId val="57991834"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +3942,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66433594"/>
+        <c:crossAx val="70808379"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2567,7 +3950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66433594"/>
+        <c:axId val="70808379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +3992,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71437249"/>
+        <c:crossAx val="57991834"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2660,7 +4043,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2828,11 +4211,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="3164343"/>
-        <c:axId val="17148941"/>
+        <c:axId val="39339337"/>
+        <c:axId val="60291829"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3164343"/>
+        <c:axId val="39339337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +4247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17148941"/>
+        <c:crossAx val="60291829"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2872,7 +4255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17148941"/>
+        <c:axId val="60291829"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2914,7 +4297,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3164343"/>
+        <c:crossAx val="39339337"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2965,7 +4348,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3133,11 +4516,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90146142"/>
-        <c:axId val="7569363"/>
+        <c:axId val="15311837"/>
+        <c:axId val="5389743"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90146142"/>
+        <c:axId val="15311837"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +4552,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7569363"/>
+        <c:crossAx val="5389743"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,7 +4560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7569363"/>
+        <c:axId val="5389743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,7 +4602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90146142"/>
+        <c:crossAx val="15311837"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3270,7 +4653,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3576,11 +4959,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67758152"/>
-        <c:axId val="75999144"/>
+        <c:axId val="79849815"/>
+        <c:axId val="55951129"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67758152"/>
+        <c:axId val="79849815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3612,7 +4995,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75999144"/>
+        <c:crossAx val="55951129"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3620,7 +5003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75999144"/>
+        <c:axId val="55951129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,7 +5045,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67758152"/>
+        <c:crossAx val="79849815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3713,7 +5096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4019,11 +5402,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="5422440"/>
-        <c:axId val="42032538"/>
+        <c:axId val="506373"/>
+        <c:axId val="59643815"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5422440"/>
+        <c:axId val="506373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4055,7 +5438,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42032538"/>
+        <c:crossAx val="59643815"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4063,7 +5446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42032538"/>
+        <c:axId val="59643815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +5488,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5422440"/>
+        <c:crossAx val="506373"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4156,7 +5539,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4474,11 +5857,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="70393843"/>
-        <c:axId val="82119870"/>
+        <c:axId val="25222041"/>
+        <c:axId val="26122270"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70393843"/>
+        <c:axId val="25222041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4506,7 +5889,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82119870"/>
+        <c:crossAx val="26122270"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4514,7 +5897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82119870"/>
+        <c:axId val="26122270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,1390 +5934,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70393843"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00185589775108987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0544519756133533</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.208966143659152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.250243284687845</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.287193360931002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.444295910606053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.436198872378424</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.443989564036845</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.586991155021025</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.584778246516891</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.573221874991279</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.688017684376304</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.699378698243906</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.689023454296935</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.771655879417525</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.785847432538815</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.783409540709852</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.839000816423268</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.849566874897893</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.852010348374227</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.884896770652042</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89156254568632</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.894433873901569</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.912379728916562</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.915755766861459</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.91797833590912</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.926849076333965</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.928615667727108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.929790604498851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.934235313236684</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00845491314092381</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0679295509776476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.196582312177445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.223259168935107</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.258947386499274</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.381134019733283</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.384786995611964</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.388409057731445</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.550567181609748</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.544238448129288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.529379234540974</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.645987651670631</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.634736760753265</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.631789649042962</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.702784814474509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.695125071917426</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.692121284981924</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.735975887267825</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.734966037800658</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.735051909353988</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.754319768490292</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.753498836440452</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.753649970374314</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.761345778983796</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.761234145964466</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.761174035877135</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.764356435643564</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.764117712725305</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.764193279692236</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.765692597013387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="59715323"/>
-        <c:axId val="85684977"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="59715323"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85684977"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85684977"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59715323"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$F$3:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>13.2911220875306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1565739873096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.38015146298086</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.78909771020646</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.69054519062976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.69390932958608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.33633438255402</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.25414069466926</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.41731034464568</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.27476635912415</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.74998132947662</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.63165559303129</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.31384694383829</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.23888945918424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.05971511533125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.01675930265443</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.923109705943105</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.900009032063832</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.852151367398607</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.840115406212541</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.815964254548281</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.80970306874589</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.796955464202241</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.794058374259812</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.787961874025212</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.786071386246339</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78297261371865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.782319134776835</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.780335663492004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.780088511123353</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.779602193349441</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.779269402959451</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.778507991293121</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.778189962887891</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.778630219977238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$G$3:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>11.7456774833819</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.39839814689176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.58690079368765</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.24594488736093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.23813637488704</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.23897833326614</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.83250248780678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.88216276905824</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.94347008720683</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9850573557513</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.52796452652087</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5336488031976</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.28182091310404</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.26567945803048</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1625007215685</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.14947701773318</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.10163072629201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.09711526925457</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.08435653188861</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.07641156525835</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.07020478432119</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.07095944476353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.06679461300688</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.06628478329558</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.06339049517884</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.06666638363244</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.06510078900175</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.06472995565963</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.06642012585873</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.06360308980986</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.06381776873721</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.06553455828212</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0656562489591</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.06184021668558</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.06403619279207</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="35165998"/>
-        <c:axId val="31173157"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="35165998"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="31173157"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="31173157"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="35165998"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$H$4:$H$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.210061434616475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.250920381449781</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.288292730784481</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.446177999164041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.437912438121535</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.572937640332812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.571917272257517</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.672208956268437</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.682463945241463</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.754399143174193</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.766619086700802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.815286328849625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.824516656172454</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.854539693348587</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.860296089218769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.876703771025368</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.879958300800558</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.888461296535107</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.890292720909259</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.894677534277218</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.895653678531031</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.897941295238447</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.898267606930946</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.899259422733148</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.899724202216214</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.900192631237947</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.900291168781932</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.900630361199135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.900682098776696</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.900713871230966</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.90090815549525</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.900886258263253</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.90089291330435</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.900819707852283</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$I$4:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.19214618773239</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.241996341871828</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.257829338874911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.396716271800641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.401734605377277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.532863902175127</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.525420555932436</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.634377817660344</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.625119146780246</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.684834224966295</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.680952830755756</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.715383888779164</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.717297106987368</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.731859205001159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.732695593930599</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.739244158587585</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.740156114483955</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.741461362094579</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.74244888495788</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.743220011506788</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.74296067941573</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.743633912393841</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.743747262844238</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.743714631653972</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.74417662061089</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.743742110551038</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.743937897692631</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.744252187577821</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.743991138055696</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.744068422453694</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.74356865001331</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.743764437154904</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.744300275647686</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.744178338041957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="77328892"/>
-        <c:axId val="58168062"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="77328892"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="58168062"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="58168062"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77328892"/>
+        <c:crossAx val="25222041"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5993,9 +5993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>408960</xdr:colOff>
+      <xdr:colOff>408600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6009,7 +6009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3246120"/>
-          <a:ext cx="4881240" cy="2793240"/>
+          <a:ext cx="4880880" cy="2792880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6030,9 +6030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>477360</xdr:colOff>
+      <xdr:colOff>477000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6046,7 +6046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="518400"/>
-          <a:ext cx="4858560" cy="2792880"/>
+          <a:ext cx="4858200" cy="2792520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6072,9 +6072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6088,7 +6088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3714480"/>
-          <a:ext cx="3797280" cy="2934720"/>
+          <a:ext cx="3796920" cy="2934360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6109,9 +6109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6125,7 +6125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3677400"/>
-          <a:ext cx="4496040" cy="2833200"/>
+          <a:ext cx="4495680" cy="2832840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6146,9 +6146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
+      <xdr:colOff>117720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6162,7 +6162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="351000"/>
-          <a:ext cx="3758040" cy="2942280"/>
+          <a:ext cx="3757680" cy="2941920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6183,9 +6183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
+      <xdr:colOff>65520</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6199,7 +6199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="312840"/>
-          <a:ext cx="4343760" cy="2914560"/>
+          <a:ext cx="4343400" cy="2914200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6220,9 +6220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>807480</xdr:colOff>
+      <xdr:colOff>807120</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6231,7 +6231,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6721560"/>
-        <a:ext cx="5754240" cy="3242160"/>
+        <a:ext cx="5753880" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6250,9 +6250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6261,7 +6261,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6726960"/>
-        <a:ext cx="5754240" cy="3242160"/>
+        <a:ext cx="5753880" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6285,9 +6285,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>50400</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6296,7 +6296,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5879880"/>
-        <a:ext cx="5834880" cy="2979720"/>
+        <a:ext cx="5834520" cy="2979360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6315,9 +6315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
+      <xdr:colOff>631800</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6326,7 +6326,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5792400"/>
-        <a:ext cx="6240960" cy="3244320"/>
+        <a:ext cx="6240600" cy="3243960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6350,9 +6350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>50400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6361,7 +6361,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5673960"/>
-        <a:ext cx="5834880" cy="2979720"/>
+        <a:ext cx="5834520" cy="2979360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6380,9 +6380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
+      <xdr:colOff>631800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6391,7 +6391,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5586480"/>
-        <a:ext cx="6240960" cy="3244680"/>
+        <a:ext cx="6240600" cy="3244320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6415,9 +6415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6426,7 +6426,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3480840" y="6023880"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6445,9 +6445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6456,7 +6456,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9551880" y="6044760"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6480,9 +6480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1115640</xdr:colOff>
+      <xdr:colOff>1115280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6491,7 +6491,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3101400" y="7093800"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6510,9 +6510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>499680</xdr:colOff>
+      <xdr:colOff>499320</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6521,7 +6521,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9006120" y="6987960"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6545,9 +6545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>294480</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6561,7 +6561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="572040"/>
-          <a:ext cx="5093280" cy="2610360"/>
+          <a:ext cx="5092920" cy="2610000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6587,9 +6587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
+      <xdr:colOff>531720</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6603,7 +6603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4426560"/>
-          <a:ext cx="4889160" cy="3589200"/>
+          <a:ext cx="4888800" cy="3588840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6624,9 +6624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>526320</xdr:colOff>
+      <xdr:colOff>525960</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6640,7 +6640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="353880"/>
-          <a:ext cx="4771800" cy="3733560"/>
+          <a:ext cx="4771440" cy="3733200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6666,9 +6666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>402840</xdr:colOff>
+      <xdr:colOff>402480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6682,7 +6682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5545080" cy="3069720"/>
+          <a:ext cx="5544720" cy="3069360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6703,9 +6703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>410760</xdr:colOff>
+      <xdr:colOff>410400</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6719,7 +6719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3256560"/>
-          <a:ext cx="5651640" cy="2970360"/>
+          <a:ext cx="5651280" cy="2970000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6745,9 +6745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>203040</xdr:colOff>
+      <xdr:colOff>202680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6761,7 +6761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="305280"/>
-          <a:ext cx="5024880" cy="2869200"/>
+          <a:ext cx="5024520" cy="2868840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6787,9 +6787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>136440</xdr:colOff>
+      <xdr:colOff>136080</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6803,7 +6803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3703680"/>
-          <a:ext cx="5339520" cy="3072240"/>
+          <a:ext cx="5339160" cy="3071880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6824,9 +6824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>136440</xdr:colOff>
+      <xdr:colOff>136080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6840,7 +6840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="342720"/>
-          <a:ext cx="5337720" cy="3067200"/>
+          <a:ext cx="5337360" cy="3066840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6866,9 +6866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6882,7 +6882,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3385440"/>
-          <a:ext cx="6043320" cy="3798360"/>
+          <a:ext cx="6042960" cy="3798000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6903,9 +6903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6919,7 +6919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="183240"/>
-          <a:ext cx="6064920" cy="3166920"/>
+          <a:ext cx="6064560" cy="3166560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6945,9 +6945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>203040</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6961,7 +6961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4275360"/>
-          <a:ext cx="4712040" cy="3498120"/>
+          <a:ext cx="4711680" cy="3497760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6982,9 +6982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>217080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6998,7 +6998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="457200"/>
-          <a:ext cx="4683600" cy="3657600"/>
+          <a:ext cx="4683240" cy="3657240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7024,9 +7024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>274680</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7040,7 +7040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4499640"/>
-          <a:ext cx="5012640" cy="3599640"/>
+          <a:ext cx="5012280" cy="3599280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7061,9 +7061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>242640</xdr:colOff>
+      <xdr:colOff>242280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7077,7 +7077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="252720"/>
-          <a:ext cx="4752360" cy="3672000"/>
+          <a:ext cx="4752000" cy="3671640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7098,9 +7098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>908280</xdr:colOff>
+      <xdr:colOff>907920</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7109,7 +7109,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2757240" y="5026320"/>
-        <a:ext cx="5757480" cy="3237480"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7128,9 +7128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>853920</xdr:colOff>
+      <xdr:colOff>853560</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7139,7 +7139,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2702880" y="8618040"/>
-        <a:ext cx="5757480" cy="3237480"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9443,7 +9443,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
@@ -10306,7 +10306,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
@@ -11272,9 +11272,9 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/records/outputs.xlsx
+++ b/records/outputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1(no use)" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
     <sheet name="ResNet50_Softmax_22" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="ResNet50_CosFacev2" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="ResNet101_EAF" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="ResNet152" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="ResNet152_CosFace" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="ResNet50_CosFacev2_new" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="ResNet50_CosFacev2_new_2" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
@@ -1350,11 +1350,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="70254276"/>
-        <c:axId val="31936107"/>
+        <c:axId val="20002426"/>
+        <c:axId val="80738954"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70254276"/>
+        <c:axId val="20002426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1382,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31936107"/>
+        <c:crossAx val="80738954"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1390,7 +1390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31936107"/>
+        <c:axId val="80738954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1427,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70254276"/>
+        <c:crossAx val="20002426"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1793,11 +1793,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="58413733"/>
-        <c:axId val="15958281"/>
+        <c:axId val="92297387"/>
+        <c:axId val="38143514"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58413733"/>
+        <c:axId val="92297387"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1825,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15958281"/>
+        <c:crossAx val="38143514"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1833,7 +1833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15958281"/>
+        <c:axId val="38143514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1870,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58413733"/>
+        <c:crossAx val="92297387"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2266,11 +2266,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="84824663"/>
-        <c:axId val="79756512"/>
+        <c:axId val="38897886"/>
+        <c:axId val="5994332"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84824663"/>
+        <c:axId val="38897886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +2298,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79756512"/>
+        <c:crossAx val="5994332"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2306,7 +2306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79756512"/>
+        <c:axId val="5994332"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2343,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84824663"/>
+        <c:crossAx val="38897886"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2733,11 +2733,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="11411197"/>
-        <c:axId val="79403305"/>
+        <c:axId val="658501"/>
+        <c:axId val="9340707"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11411197"/>
+        <c:axId val="658501"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,7 +2765,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79403305"/>
+        <c:crossAx val="9340707"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2773,7 +2773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79403305"/>
+        <c:axId val="9340707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,7 +2810,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11411197"/>
+        <c:crossAx val="658501"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3008,11 +3008,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="53987593"/>
-        <c:axId val="47881637"/>
+        <c:axId val="68147176"/>
+        <c:axId val="62461807"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53987593"/>
+        <c:axId val="68147176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,7 +3040,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47881637"/>
+        <c:crossAx val="62461807"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3048,7 +3048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47881637"/>
+        <c:axId val="62461807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +3085,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53987593"/>
+        <c:crossAx val="68147176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3451,11 +3451,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="56820492"/>
-        <c:axId val="61040897"/>
+        <c:axId val="31571716"/>
+        <c:axId val="24667045"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56820492"/>
+        <c:axId val="31571716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3487,7 +3487,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61040897"/>
+        <c:crossAx val="24667045"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3495,7 +3495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61040897"/>
+        <c:axId val="24667045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,7 +3537,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56820492"/>
+        <c:crossAx val="31571716"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3906,11 +3906,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="57991834"/>
-        <c:axId val="70808379"/>
+        <c:axId val="93163529"/>
+        <c:axId val="68593123"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57991834"/>
+        <c:axId val="93163529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,7 +3942,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70808379"/>
+        <c:crossAx val="68593123"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3950,7 +3950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70808379"/>
+        <c:axId val="68593123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,7 +3992,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57991834"/>
+        <c:crossAx val="93163529"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4211,11 +4211,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39339337"/>
-        <c:axId val="60291829"/>
+        <c:axId val="79800916"/>
+        <c:axId val="8039344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39339337"/>
+        <c:axId val="79800916"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,7 +4247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60291829"/>
+        <c:crossAx val="8039344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4255,7 +4255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60291829"/>
+        <c:axId val="8039344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,7 +4297,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39339337"/>
+        <c:crossAx val="79800916"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4516,11 +4516,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="15311837"/>
-        <c:axId val="5389743"/>
+        <c:axId val="60606843"/>
+        <c:axId val="34286928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15311837"/>
+        <c:axId val="60606843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,7 +4552,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5389743"/>
+        <c:crossAx val="34286928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4560,7 +4560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5389743"/>
+        <c:axId val="34286928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,7 +4602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15311837"/>
+        <c:crossAx val="60606843"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4668,7 +4668,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResNet152!$F$1:$F$1</c:f>
+              <c:f>ResNet152_CosFace!$F$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4723,7 +4723,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$F$2:$F$26</c:f>
+              <c:f>ResNet152_CosFace!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4812,7 +4812,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResNet152!$G$1:$G$1</c:f>
+              <c:f>ResNet152_CosFace!$G$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4867,7 +4867,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$G$2:$G$26</c:f>
+              <c:f>ResNet152_CosFace!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4959,11 +4959,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="79849815"/>
-        <c:axId val="55951129"/>
+        <c:axId val="85520678"/>
+        <c:axId val="98266616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79849815"/>
+        <c:axId val="85520678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4995,7 +4995,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55951129"/>
+        <c:crossAx val="98266616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5003,7 +5003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55951129"/>
+        <c:axId val="98266616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,7 +5045,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79849815"/>
+        <c:crossAx val="85520678"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5111,7 +5111,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResNet152!$H$1:$H$1</c:f>
+              <c:f>ResNet152_CosFace!$H$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5166,7 +5166,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$H$2:$H$26</c:f>
+              <c:f>ResNet152_CosFace!$H$2:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5255,7 +5255,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResNet152!$I$1:$I$1</c:f>
+              <c:f>ResNet152_CosFace!$I$1:$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5310,7 +5310,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$I$2:$I$26</c:f>
+              <c:f>ResNet152_CosFace!$I$2:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5402,11 +5402,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="506373"/>
-        <c:axId val="59643815"/>
+        <c:axId val="69004403"/>
+        <c:axId val="83423224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="506373"/>
+        <c:axId val="69004403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5438,7 +5438,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59643815"/>
+        <c:crossAx val="83423224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5446,7 +5446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59643815"/>
+        <c:axId val="83423224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,7 +5488,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506373"/>
+        <c:crossAx val="69004403"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5857,11 +5857,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="25222041"/>
-        <c:axId val="26122270"/>
+        <c:axId val="96760518"/>
+        <c:axId val="8274636"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25222041"/>
+        <c:axId val="96760518"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5889,7 +5889,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26122270"/>
+        <c:crossAx val="8274636"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5897,7 +5897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26122270"/>
+        <c:axId val="8274636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5934,7 +5934,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25222041"/>
+        <c:crossAx val="96760518"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5993,9 +5993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>408600</xdr:colOff>
+      <xdr:colOff>408240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6009,7 +6009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3246120"/>
-          <a:ext cx="4880880" cy="2792880"/>
+          <a:ext cx="4880520" cy="2792520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6030,9 +6030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>477000</xdr:colOff>
+      <xdr:colOff>476640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6046,7 +6046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="518400"/>
-          <a:ext cx="4858200" cy="2792520"/>
+          <a:ext cx="4857840" cy="2792160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6072,9 +6072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>128160</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6088,7 +6088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3714480"/>
-          <a:ext cx="3796920" cy="2934360"/>
+          <a:ext cx="3796560" cy="2934000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6109,9 +6109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6125,7 +6125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3677400"/>
-          <a:ext cx="4495680" cy="2832840"/>
+          <a:ext cx="4495320" cy="2832480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6146,9 +6146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>117720</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6162,7 +6162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="351000"/>
-          <a:ext cx="3757680" cy="2941920"/>
+          <a:ext cx="3757320" cy="2941560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6183,9 +6183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>65520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6199,7 +6199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="312840"/>
-          <a:ext cx="4343400" cy="2914200"/>
+          <a:ext cx="4343040" cy="2913840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6220,9 +6220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>807120</xdr:colOff>
+      <xdr:colOff>806760</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6231,7 +6231,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6721560"/>
-        <a:ext cx="5753880" cy="3241800"/>
+        <a:ext cx="5753520" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6250,9 +6250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6261,7 +6261,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6726960"/>
-        <a:ext cx="5753880" cy="3241800"/>
+        <a:ext cx="5753520" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6285,9 +6285,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>50040</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6296,7 +6296,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5879880"/>
-        <a:ext cx="5834520" cy="2979360"/>
+        <a:ext cx="5834160" cy="2979000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6315,9 +6315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
+      <xdr:colOff>631440</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6326,7 +6326,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5792400"/>
-        <a:ext cx="6240600" cy="3243960"/>
+        <a:ext cx="6240240" cy="3243600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6350,9 +6350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>50040</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6361,7 +6361,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5673960"/>
-        <a:ext cx="5834520" cy="2979360"/>
+        <a:ext cx="5834160" cy="2979000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6380,9 +6380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
+      <xdr:colOff>631440</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6391,7 +6391,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5586480"/>
-        <a:ext cx="6240600" cy="3244320"/>
+        <a:ext cx="6240240" cy="3243960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6415,9 +6415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6426,7 +6426,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3480840" y="6023880"/>
-        <a:ext cx="5757840" cy="3237840"/>
+        <a:ext cx="5757480" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6445,9 +6445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>282960</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6456,7 +6456,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9551880" y="6044760"/>
-        <a:ext cx="5757840" cy="3237840"/>
+        <a:ext cx="5757480" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6480,9 +6480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1115280</xdr:colOff>
+      <xdr:colOff>1114920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6491,7 +6491,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3101400" y="7093800"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6510,9 +6510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>499320</xdr:colOff>
+      <xdr:colOff>498960</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6521,7 +6521,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9006120" y="6987960"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6545,9 +6545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>293760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6561,7 +6561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="572040"/>
-          <a:ext cx="5092920" cy="2610000"/>
+          <a:ext cx="5092560" cy="2609640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6587,9 +6587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6603,7 +6603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4426560"/>
-          <a:ext cx="4888800" cy="3588840"/>
+          <a:ext cx="4888440" cy="3588480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6624,9 +6624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>525960</xdr:colOff>
+      <xdr:colOff>525600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6640,7 +6640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="353880"/>
-          <a:ext cx="4771440" cy="3733200"/>
+          <a:ext cx="4771080" cy="3732840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6666,9 +6666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>402480</xdr:colOff>
+      <xdr:colOff>402120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6682,7 +6682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5544720" cy="3069360"/>
+          <a:ext cx="5544360" cy="3069000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6703,9 +6703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>410400</xdr:colOff>
+      <xdr:colOff>410040</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6719,7 +6719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3256560"/>
-          <a:ext cx="5651280" cy="2970000"/>
+          <a:ext cx="5650920" cy="2969640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6745,9 +6745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>202680</xdr:colOff>
+      <xdr:colOff>202320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6761,7 +6761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="305280"/>
-          <a:ext cx="5024520" cy="2868840"/>
+          <a:ext cx="5024160" cy="2868480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6787,9 +6787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6803,7 +6803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3703680"/>
-          <a:ext cx="5339160" cy="3071880"/>
+          <a:ext cx="5338800" cy="3071520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6824,9 +6824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6840,7 +6840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="342720"/>
-          <a:ext cx="5337360" cy="3066840"/>
+          <a:ext cx="5337000" cy="3066480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6866,9 +6866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6882,7 +6882,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3385440"/>
-          <a:ext cx="6042960" cy="3798000"/>
+          <a:ext cx="6042600" cy="3797640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6903,9 +6903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6919,7 +6919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="183240"/>
-          <a:ext cx="6064560" cy="3166560"/>
+          <a:ext cx="6064200" cy="3166200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6945,9 +6945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>203040</xdr:colOff>
+      <xdr:colOff>202680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6961,7 +6961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4275360"/>
-          <a:ext cx="4711680" cy="3497760"/>
+          <a:ext cx="4711320" cy="3497400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6982,9 +6982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:colOff>216720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6998,7 +6998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="457200"/>
-          <a:ext cx="4683240" cy="3657240"/>
+          <a:ext cx="4682880" cy="3656880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7024,9 +7024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>273960</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7040,7 +7040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4499640"/>
-          <a:ext cx="5012280" cy="3599280"/>
+          <a:ext cx="5011920" cy="3598920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7061,9 +7061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>242280</xdr:colOff>
+      <xdr:colOff>241920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7077,7 +7077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="252720"/>
-          <a:ext cx="4752000" cy="3671640"/>
+          <a:ext cx="4751640" cy="3671280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7098,9 +7098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>907920</xdr:colOff>
+      <xdr:colOff>907560</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7109,7 +7109,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2757240" y="5026320"/>
-        <a:ext cx="5757120" cy="3237120"/>
+        <a:ext cx="5756760" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7128,9 +7128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>853560</xdr:colOff>
+      <xdr:colOff>853200</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7139,7 +7139,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2702880" y="8618040"/>
-        <a:ext cx="5757120" cy="3237120"/>
+        <a:ext cx="5756760" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8967,7 +8967,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9442,7 +9442,7 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
@@ -10306,7 +10306,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
@@ -11271,8 +11271,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>

--- a/records/outputs.xlsx
+++ b/records/outputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1(no use)" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="ResNet152_CosFace" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="ResNet50_CosFacev2_new" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="ResNet50_CosFacev2_new_2" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="ResNet101_CosFace" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="264">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -810,6 +811,21 @@
   </si>
   <si>
     <t xml:space="preserve">36 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-7 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-14 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-24 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-34 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 epoch</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1084,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1350,11 +1366,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="20002426"/>
-        <c:axId val="80738954"/>
+        <c:axId val="27608753"/>
+        <c:axId val="45039475"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20002426"/>
+        <c:axId val="27608753"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80738954"/>
+        <c:crossAx val="45039475"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1390,7 +1406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80738954"/>
+        <c:axId val="45039475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1443,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20002426"/>
+        <c:crossAx val="27608753"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1475,1390 +1491,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00185589775108987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0544519756133533</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.208966143659152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.250243284687845</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.287193360931002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.444295910606053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.436198872378424</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.443989564036845</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.586991155021025</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.584778246516891</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.573221874991279</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.688017684376304</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.699378698243906</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.689023454296935</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.771655879417525</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.785847432538815</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.783409540709852</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.839000816423268</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.849566874897893</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.852010348374227</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.884896770652042</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89156254568632</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.894433873901569</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.912379728916562</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.915755766861459</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.91797833590912</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.926849076333965</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.928615667727108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.929790604498851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.934235313236684</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00845491314092381</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0679295509776476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.196582312177445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.223259168935107</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.258947386499274</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.381134019733283</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.384786995611964</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.388409057731445</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.550567181609748</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.544238448129288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.529379234540974</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.645987651670631</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.634736760753265</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.631789649042962</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.702784814474509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.695125071917426</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.692121284981924</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.735975887267825</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.734966037800658</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.735051909353988</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.754319768490292</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.753498836440452</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.753649970374314</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.761345778983796</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.761234145964466</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.761174035877135</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.764356435643564</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.764117712725305</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.764193279692236</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.765692597013387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="92297387"/>
-        <c:axId val="38143514"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="92297387"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="38143514"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="38143514"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92297387"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$F$3:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>13.2911220875306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1565739873096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.38015146298086</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.78909771020646</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.69054519062976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.69390932958608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.33633438255402</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.25414069466926</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.41731034464568</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.27476635912415</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.74998132947662</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.63165559303129</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.31384694383829</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.23888945918424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.05971511533125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.01675930265443</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.923109705943105</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.900009032063832</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.852151367398607</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.840115406212541</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.815964254548281</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.80970306874589</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.796955464202241</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.794058374259812</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.787961874025212</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.786071386246339</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78297261371865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.782319134776835</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.780335663492004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.780088511123353</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.779602193349441</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.779269402959451</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.778507991293121</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.778189962887891</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.778630219977238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$G$3:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>11.7456774833819</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.39839814689176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.58690079368765</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.24594488736093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.23813637488704</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.23897833326614</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.83250248780678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.88216276905824</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.94347008720683</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9850573557513</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.52796452652087</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5336488031976</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.28182091310404</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.26567945803048</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1625007215685</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.14947701773318</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.10163072629201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.09711526925457</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.08435653188861</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.07641156525835</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.07020478432119</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.07095944476353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.06679461300688</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.06628478329558</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.06339049517884</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.06666638363244</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.06510078900175</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.06472995565963</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.06642012585873</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.06360308980986</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.06381776873721</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.06553455828212</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0656562489591</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.06184021668558</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.06403619279207</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="38897886"/>
-        <c:axId val="5994332"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="38897886"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="5994332"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="5994332"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="38897886"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$H$4:$H$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.210061434616475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.250920381449781</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.288292730784481</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.446177999164041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.437912438121535</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.572937640332812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.571917272257517</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.672208956268437</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.682463945241463</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.754399143174193</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.766619086700802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.815286328849625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.824516656172454</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.854539693348587</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.860296089218769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.876703771025368</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.879958300800558</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.888461296535107</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.890292720909259</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.894677534277218</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.895653678531031</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.897941295238447</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.898267606930946</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.899259422733148</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.899724202216214</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.900192631237947</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.900291168781932</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.900630361199135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.900682098776696</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.900713871230966</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.90090815549525</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.900886258263253</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.90089291330435</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.900819707852283</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$I$4:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.19214618773239</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.241996341871828</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.257829338874911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.396716271800641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.401734605377277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.532863902175127</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.525420555932436</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.634377817660344</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.625119146780246</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.684834224966295</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.680952830755756</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.715383888779164</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.717297106987368</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.731859205001159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.732695593930599</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.739244158587585</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.740156114483955</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.741461362094579</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.74244888495788</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.743220011506788</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.74296067941573</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.743633912393841</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.743747262844238</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.743714631653972</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.74417662061089</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.743742110551038</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.743937897692631</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.744252187577821</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.743991138055696</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.744068422453694</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.74356865001331</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.743764437154904</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.744300275647686</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.744178338041957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="658501"/>
-        <c:axId val="9340707"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="658501"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="9340707"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="9340707"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="658501"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3008,11 +1641,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="68147176"/>
-        <c:axId val="62461807"/>
+        <c:axId val="27716240"/>
+        <c:axId val="68884686"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68147176"/>
+        <c:axId val="27716240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,7 +1673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62461807"/>
+        <c:crossAx val="68884686"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3048,7 +1681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62461807"/>
+        <c:axId val="68884686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +1718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68147176"/>
+        <c:crossAx val="27716240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3133,7 +1766,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3451,11 +2084,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="31571716"/>
-        <c:axId val="24667045"/>
+        <c:axId val="4444360"/>
+        <c:axId val="3311254"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31571716"/>
+        <c:axId val="4444360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3487,7 +2120,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24667045"/>
+        <c:crossAx val="3311254"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3495,7 +2128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24667045"/>
+        <c:axId val="3311254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,7 +2170,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31571716"/>
+        <c:crossAx val="4444360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3588,7 +2221,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3906,11 +2539,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="93163529"/>
-        <c:axId val="68593123"/>
+        <c:axId val="91853246"/>
+        <c:axId val="62182332"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93163529"/>
+        <c:axId val="91853246"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,7 +2575,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68593123"/>
+        <c:crossAx val="62182332"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3950,7 +2583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68593123"/>
+        <c:axId val="62182332"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,7 +2625,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93163529"/>
+        <c:crossAx val="91853246"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4043,7 +2676,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4211,11 +2844,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="79800916"/>
-        <c:axId val="8039344"/>
+        <c:axId val="98042098"/>
+        <c:axId val="1419133"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79800916"/>
+        <c:axId val="98042098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,7 +2880,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8039344"/>
+        <c:crossAx val="1419133"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4255,7 +2888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8039344"/>
+        <c:axId val="1419133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,7 +2930,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79800916"/>
+        <c:crossAx val="98042098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4348,7 +2981,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4516,11 +3149,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="60606843"/>
-        <c:axId val="34286928"/>
+        <c:axId val="66755950"/>
+        <c:axId val="5442275"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60606843"/>
+        <c:axId val="66755950"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,7 +3185,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34286928"/>
+        <c:crossAx val="5442275"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4560,7 +3193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34286928"/>
+        <c:axId val="5442275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,7 +3235,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60606843"/>
+        <c:crossAx val="66755950"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4653,7 +3286,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4959,11 +3592,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="85520678"/>
-        <c:axId val="98266616"/>
+        <c:axId val="27683862"/>
+        <c:axId val="27336898"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85520678"/>
+        <c:axId val="27683862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4995,7 +3628,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98266616"/>
+        <c:crossAx val="27336898"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5003,7 +3636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98266616"/>
+        <c:axId val="27336898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,7 +3678,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85520678"/>
+        <c:crossAx val="27683862"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5096,7 +3729,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5402,11 +4035,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="69004403"/>
-        <c:axId val="83423224"/>
+        <c:axId val="90311438"/>
+        <c:axId val="23191966"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69004403"/>
+        <c:axId val="90311438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5438,7 +4071,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83423224"/>
+        <c:crossAx val="23191966"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5446,7 +4079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83423224"/>
+        <c:axId val="23191966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,7 +4121,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69004403"/>
+        <c:crossAx val="90311438"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5539,7 +4172,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5857,11 +4490,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="96760518"/>
-        <c:axId val="8274636"/>
+        <c:axId val="62693672"/>
+        <c:axId val="91242966"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96760518"/>
+        <c:axId val="62693672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5889,7 +4522,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8274636"/>
+        <c:crossAx val="91242966"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5897,7 +4530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8274636"/>
+        <c:axId val="91242966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5934,7 +4567,2072 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96760518"/>
+        <c:crossAx val="62693672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00185589775108987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0544519756133533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.208966143659152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.250243284687845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.287193360931002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.444295910606053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.436198872378424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.443989564036845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.586991155021025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.584778246516891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.573221874991279</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.688017684376304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.699378698243906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.689023454296935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.771655879417525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.785847432538815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.783409540709852</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.839000816423268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.849566874897893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.852010348374227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.884896770652042</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89156254568632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.894433873901569</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.912379728916562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.915755766861459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91797833590912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.926849076333965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.928615667727108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.929790604498851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.934235313236684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00845491314092381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0679295509776476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.196582312177445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.223259168935107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.258947386499274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.381134019733283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.384786995611964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.388409057731445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.550567181609748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.544238448129288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.529379234540974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.645987651670631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.634736760753265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.631789649042962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.702784814474509</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.695125071917426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.692121284981924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.735975887267825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.734966037800658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.735051909353988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.754319768490292</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.753498836440452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.753649970374314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.761345778983796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.761234145964466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.761174035877135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.764356435643564</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.764117712725305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.764193279692236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.765692597013387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="66965477"/>
+        <c:axId val="52208962"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66965477"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52208962"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52208962"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66965477"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$3:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>13.2911220875306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1565739873096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.38015146298086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.78909771020646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.69054519062976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.69390932958608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.33633438255402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.25414069466926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.41731034464568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.27476635912415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.74998132947662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.63165559303129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31384694383829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.23888945918424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05971511533125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.01675930265443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.923109705943105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.900009032063832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.852151367398607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.840115406212541</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.815964254548281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80970306874589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.796955464202241</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.794058374259812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.787961874025212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.786071386246339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78297261371865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.782319134776835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.780335663492004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.780088511123353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.779602193349441</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.779269402959451</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.778507991293121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.778189962887891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.778630219977238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$3:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>11.7456774833819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.39839814689176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.58690079368765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.24594488736093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23813637488704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.23897833326614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.83250248780678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.88216276905824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.94347008720683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9850573557513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.52796452652087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5336488031976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.28182091310404</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.26567945803048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1625007215685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.14947701773318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.10163072629201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.09711526925457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.08435653188861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.07641156525835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.07020478432119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.07095944476353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.06679461300688</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.06628478329558</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.06339049517884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.06666638363244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.06510078900175</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.06472995565963</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.06642012585873</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.06360308980986</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.06381776873721</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.06553455828212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0656562489591</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.06184021668558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.06403619279207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="57137766"/>
+        <c:axId val="57817423"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57137766"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57817423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57817423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57137766"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$4:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.210061434616475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.250920381449781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.288292730784481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.446177999164041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.437912438121535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.572937640332812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.571917272257517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.672208956268437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.682463945241463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.754399143174193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.766619086700802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.815286328849625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.824516656172454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.854539693348587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.860296089218769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.876703771025368</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.879958300800558</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.888461296535107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.890292720909259</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.894677534277218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.895653678531031</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.897941295238447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.898267606930946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.899259422733148</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.899724202216214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.900192631237947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.900291168781932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.900630361199135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.900682098776696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.900713871230966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.90090815549525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.900886258263253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90089291330435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.900819707852283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$4:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.19214618773239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.241996341871828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.257829338874911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.396716271800641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.401734605377277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.532863902175127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.525420555932436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.634377817660344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625119146780246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.684834224966295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.680952830755756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.715383888779164</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.717297106987368</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.731859205001159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.732695593930599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.739244158587585</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.740156114483955</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.741461362094579</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74244888495788</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.743220011506788</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74296067941573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.743633912393841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.743747262844238</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.743714631653972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74417662061089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.743742110551038</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.743937897692631</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.744252187577821</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.743991138055696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.744068422453694</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74356865001331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.743764437154904</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.744300275647686</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.744178338041957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="451486"/>
+        <c:axId val="36173089"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451486"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36173089"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36173089"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451486"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$F$4:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7.3606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1689</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9489</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$G$4:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7.864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="9827666"/>
+        <c:axId val="63509594"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="9827666"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63509594"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63509594"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9827666"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$H$4:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.2485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5773</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6066</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$I$4:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4782</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5053</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="70523949"/>
+        <c:axId val="75440566"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70523949"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75440566"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75440566"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70523949"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5993,9 +6691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>408240</xdr:colOff>
+      <xdr:colOff>407880</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6009,7 +6707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3246120"/>
-          <a:ext cx="4880520" cy="2792520"/>
+          <a:ext cx="4880160" cy="2792160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6030,9 +6728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>476640</xdr:colOff>
+      <xdr:colOff>476280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6046,7 +6744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="518400"/>
-          <a:ext cx="4857840" cy="2792160"/>
+          <a:ext cx="4857480" cy="2791800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6072,9 +6770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>127800</xdr:colOff>
+      <xdr:colOff>127440</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6088,7 +6786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3714480"/>
-          <a:ext cx="3796560" cy="2934000"/>
+          <a:ext cx="3796200" cy="2933640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6109,9 +6807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>100800</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6125,7 +6823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3677400"/>
-          <a:ext cx="4495320" cy="2832480"/>
+          <a:ext cx="4494960" cy="2832120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6146,9 +6844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>117000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6162,7 +6860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="351000"/>
-          <a:ext cx="3757320" cy="2941560"/>
+          <a:ext cx="3756960" cy="2941200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6183,9 +6881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>64800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6199,7 +6897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="312840"/>
-          <a:ext cx="4343040" cy="2913840"/>
+          <a:ext cx="4342680" cy="2913480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6220,9 +6918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
+      <xdr:colOff>806400</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6231,7 +6929,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6721560"/>
-        <a:ext cx="5753520" cy="3241440"/>
+        <a:ext cx="5753160" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6250,9 +6948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>242640</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6261,7 +6959,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6726960"/>
-        <a:ext cx="5753520" cy="3241440"/>
+        <a:ext cx="5753160" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6285,9 +6983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
+      <xdr:colOff>49680</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6296,7 +6994,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5879880"/>
-        <a:ext cx="5834160" cy="2979000"/>
+        <a:ext cx="5833800" cy="2978640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6315,9 +7013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>631440</xdr:colOff>
+      <xdr:colOff>631080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6326,7 +7024,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5792400"/>
-        <a:ext cx="6240240" cy="3243600"/>
+        <a:ext cx="6239880" cy="3243240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6350,9 +7048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
+      <xdr:colOff>49680</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6361,7 +7059,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5673960"/>
-        <a:ext cx="5834160" cy="2979000"/>
+        <a:ext cx="5833800" cy="2978640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6380,9 +7078,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>631440</xdr:colOff>
+      <xdr:colOff>631080</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6391,7 +7089,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5586480"/>
-        <a:ext cx="6240240" cy="3243960"/>
+        <a:ext cx="6239880" cy="3243600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6415,9 +7113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>80640</xdr:colOff>
+      <xdr:colOff>80280</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6426,7 +7124,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3480840" y="6023880"/>
-        <a:ext cx="5757480" cy="3237480"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6445,9 +7143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>282960</xdr:colOff>
+      <xdr:colOff>282600</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6456,7 +7154,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9551880" y="6044760"/>
-        <a:ext cx="5757480" cy="3237480"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6480,9 +7178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1114920</xdr:colOff>
+      <xdr:colOff>1114560</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6491,7 +7189,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3101400" y="7093800"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6510,9 +7208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>498960</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6521,7 +7219,72 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9006120" y="6987960"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:ext cx="5758200" cy="3238200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>700560</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1114560</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3101400" y="7093800"/>
+        <a:ext cx="5758200" cy="3238200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1261080</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>498600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>145080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9006120" y="6987960"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6545,9 +7308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6561,7 +7324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="572040"/>
-          <a:ext cx="5092560" cy="2609640"/>
+          <a:ext cx="5092200" cy="2609280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6587,9 +7350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6603,7 +7366,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4426560"/>
-          <a:ext cx="4888440" cy="3588480"/>
+          <a:ext cx="4888080" cy="3588120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6624,9 +7387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>525600</xdr:colOff>
+      <xdr:colOff>525240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6640,7 +7403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="353880"/>
-          <a:ext cx="4771080" cy="3732840"/>
+          <a:ext cx="4770720" cy="3732480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6666,9 +7429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
+      <xdr:colOff>401760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6682,7 +7445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5544360" cy="3069000"/>
+          <a:ext cx="5544000" cy="3068640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6703,9 +7466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>410040</xdr:colOff>
+      <xdr:colOff>409680</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6719,7 +7482,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3256560"/>
-          <a:ext cx="5650920" cy="2969640"/>
+          <a:ext cx="5650560" cy="2969280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6745,9 +7508,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201960</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6761,7 +7524,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="305280"/>
-          <a:ext cx="5024160" cy="2868480"/>
+          <a:ext cx="5023800" cy="2868120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6787,9 +7550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6803,7 +7566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3703680"/>
-          <a:ext cx="5338800" cy="3071520"/>
+          <a:ext cx="5338440" cy="3071160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6824,9 +7587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6840,7 +7603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="342720"/>
-          <a:ext cx="5337000" cy="3066480"/>
+          <a:ext cx="5336640" cy="3066120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6866,9 +7629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>34920</xdr:colOff>
+      <xdr:colOff>34560</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6882,7 +7645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3385440"/>
-          <a:ext cx="6042600" cy="3797640"/>
+          <a:ext cx="6042240" cy="3797280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6903,9 +7666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>34920</xdr:colOff>
+      <xdr:colOff>34560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6919,7 +7682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="183240"/>
-          <a:ext cx="6064200" cy="3166200"/>
+          <a:ext cx="6063840" cy="3165840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6945,9 +7708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>202680</xdr:colOff>
+      <xdr:colOff>202320</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6961,7 +7724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4275360"/>
-          <a:ext cx="4711320" cy="3497400"/>
+          <a:ext cx="4710960" cy="3497040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6982,9 +7745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>216720</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6998,7 +7761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="457200"/>
-          <a:ext cx="4682880" cy="3656880"/>
+          <a:ext cx="4682520" cy="3656520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7024,9 +7787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>273960</xdr:colOff>
+      <xdr:colOff>273600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7040,7 +7803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4499640"/>
-          <a:ext cx="5011920" cy="3598920"/>
+          <a:ext cx="5011560" cy="3598560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7061,9 +7824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>241920</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7077,7 +7840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="252720"/>
-          <a:ext cx="4751640" cy="3671280"/>
+          <a:ext cx="4751280" cy="3670920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7098,9 +7861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>907560</xdr:colOff>
+      <xdr:colOff>907200</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7109,7 +7872,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2757240" y="5026320"/>
-        <a:ext cx="5756760" cy="3236760"/>
+        <a:ext cx="5756400" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7128,9 +7891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>853200</xdr:colOff>
+      <xdr:colOff>852840</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7139,7 +7902,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2702880" y="8618040"/>
-        <a:ext cx="5756760" cy="3236760"/>
+        <a:ext cx="5756400" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9442,7 +10205,7 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
@@ -12372,6 +13135,776 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4658123</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>28.0287</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>18.2276</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <f aca="false">ROUND(I2*100, 2)</f>
+        <v>0.51</v>
+      </c>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>12.784</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>11.594</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.0629</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.0669</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <f aca="false">ROUND(I3*100, 2)</f>
+        <v>6.69</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7.3606</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>7.864</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.2485</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <f aca="false">ROUND(I4*100, 2)</f>
+        <v>20.7</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>6.3549</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>7.6899</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.3083</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.2085</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <f aca="false">ROUND(I5*100, 2)</f>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>7.2012</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.3564</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.2404</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <f aca="false">ROUND(I6*100, 2)</f>
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5.2326</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>6.9147</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.3953</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.2485</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <f aca="false">ROUND(I7*100, 2)</f>
+        <v>24.85</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4.8831</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>6.0007</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.4253</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.3284</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <f aca="false">ROUND(I8*100, 2)</f>
+        <v>32.84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3.288</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4.1782</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.5814</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <f aca="false">ROUND(I9*100, 2)</f>
+        <v>48.77</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3.1487</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>4.4106</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.5852</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.4597</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <f aca="false">ROUND(I10*100, 2)</f>
+        <v>45.97</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3.2033</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>4.3794</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.5773</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.4651</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <f aca="false">ROUND(I11*100, 2)</f>
+        <v>46.51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>4.2881</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.5816</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.4782</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <f aca="false">ROUND(I12*100, 2)</f>
+        <v>47.82</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3.0992</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>4.4023</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <f aca="false">ROUND(I13*100, 2)</f>
+        <v>45.9</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>4.0596</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.5982</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.5023</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <f aca="false">ROUND(I14*100, 2)</f>
+        <v>50.23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2.9489</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>3.992</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.6066</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.5053</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <f aca="false">ROUND(I15*100, 2)</f>
+        <v>50.53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1.9094</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2.7425</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.7395</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <f aca="false">ROUND(I16*100, 2)</f>
+        <v>65.7</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <f aca="false">ROUND(I17*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <f aca="false">ROUND(I18*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <f aca="false">ROUND(I19*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <f aca="false">ROUND(I20*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <f aca="false">ROUND(I21*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <f aca="false">ROUND(I22*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <f aca="false">ROUND(I23*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <f aca="false">ROUND(I24*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <f aca="false">ROUND(I25*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <f aca="false">ROUND(I26*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <f aca="false">ROUND(I27*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <f aca="false">ROUND(I28*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">B28/2</f>
+        <v>0.005</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <f aca="false">ROUND(I29*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">B29/2</f>
+        <v>0.0025</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <f aca="false">ROUND(I30*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">B30/2</f>
+        <v>0.00125</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <f aca="false">ROUND(I31*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">B31/2</f>
+        <v>0.000625</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <f aca="false">ROUND(I32*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">B32/2</f>
+        <v>0.0003125</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <f aca="false">ROUND(I33*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <f aca="false">ROUND(I34*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <f aca="false">ROUND(I35*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <f aca="false">ROUND(I36*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <f aca="false">ROUND(I37*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <f aca="false">MAX(J2:J38)</f>
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="7" t="n">
+        <v>0.0005</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">

--- a/records/outputs.xlsx
+++ b/records/outputs.xlsx
@@ -1084,7 +1084,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1366,11 +1366,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="27608753"/>
-        <c:axId val="45039475"/>
+        <c:axId val="92412896"/>
+        <c:axId val="13201898"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27608753"/>
+        <c:axId val="92412896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45039475"/>
+        <c:crossAx val="13201898"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1406,7 +1406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45039475"/>
+        <c:axId val="13201898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1443,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27608753"/>
+        <c:crossAx val="92412896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1491,7 +1491,2324 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00185589775108987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0544519756133533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.208966143659152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.250243284687845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.287193360931002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.444295910606053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.436198872378424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.443989564036845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.586991155021025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.584778246516891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.573221874991279</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.688017684376304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.699378698243906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.689023454296935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.771655879417525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.785847432538815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.783409540709852</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.839000816423268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.849566874897893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.852010348374227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.884896770652042</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89156254568632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.894433873901569</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.912379728916562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.915755766861459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91797833590912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.926849076333965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.928615667727108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.929790604498851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.934235313236684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00845491314092381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0679295509776476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.196582312177445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.223259168935107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.258947386499274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.381134019733283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.384786995611964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.388409057731445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.550567181609748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.544238448129288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.529379234540974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.645987651670631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.634736760753265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.631789649042962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.702784814474509</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.695125071917426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.692121284981924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.735975887267825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.734966037800658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.735051909353988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.754319768490292</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.753498836440452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.753649970374314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.761345778983796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.761234145964466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.761174035877135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.764356435643564</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.764117712725305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.764193279692236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.765692597013387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="62504735"/>
+        <c:axId val="469958"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="62504735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469958"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469958"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62504735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$3:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>13.2911220875306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1565739873096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.38015146298086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.78909771020646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.69054519062976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.69390932958608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.33633438255402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.25414069466926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.41731034464568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.27476635912415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.74998132947662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.63165559303129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31384694383829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.23888945918424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05971511533125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.01675930265443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.923109705943105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.900009032063832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.852151367398607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.840115406212541</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.815964254548281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80970306874589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.796955464202241</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.794058374259812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.787961874025212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.786071386246339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78297261371865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.782319134776835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.780335663492004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.780088511123353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.779602193349441</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.779269402959451</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.778507991293121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.778189962887891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.778630219977238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$3:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>11.7456774833819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.39839814689176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.58690079368765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.24594488736093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23813637488704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.23897833326614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.83250248780678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.88216276905824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.94347008720683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9850573557513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.52796452652087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5336488031976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.28182091310404</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.26567945803048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1625007215685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.14947701773318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.10163072629201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.09711526925457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.08435653188861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.07641156525835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.07020478432119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.07095944476353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.06679461300688</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.06628478329558</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.06339049517884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.06666638363244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.06510078900175</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.06472995565963</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.06642012585873</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.06360308980986</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.06381776873721</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.06553455828212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0656562489591</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.06184021668558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.06403619279207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="51735789"/>
+        <c:axId val="75579421"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="51735789"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75579421"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75579421"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51735789"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$4:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.210061434616475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.250920381449781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.288292730784481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.446177999164041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.437912438121535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.572937640332812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.571917272257517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.672208956268437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.682463945241463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.754399143174193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.766619086700802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.815286328849625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.824516656172454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.854539693348587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.860296089218769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.876703771025368</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.879958300800558</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.888461296535107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.890292720909259</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.894677534277218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.895653678531031</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.897941295238447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.898267606930946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.899259422733148</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.899724202216214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.900192631237947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.900291168781932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.900630361199135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.900682098776696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.900713871230966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.90090815549525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.900886258263253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90089291330435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.900819707852283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$4:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.19214618773239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.241996341871828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.257829338874911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.396716271800641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.401734605377277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.532863902175127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.525420555932436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.634377817660344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625119146780246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.684834224966295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.680952830755756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.715383888779164</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.717297106987368</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.731859205001159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.732695593930599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.739244158587585</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.740156114483955</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.741461362094579</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74244888495788</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.743220011506788</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74296067941573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.743633912393841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.743747262844238</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.743714631653972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74417662061089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.743742110551038</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.743937897692631</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.744252187577821</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.743991138055696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.744068422453694</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74356865001331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.743764437154904</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.744300275647686</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.744178338041957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="56943321"/>
+        <c:axId val="46833210"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="56943321"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46833210"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46833210"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56943321"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$F$4:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7.36058182482198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.35490565587769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.71297521220361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.23255759917272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.88311789976892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.28802951525046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.14873417024348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2032749676886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.16889706757809</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.09924728617854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.02097690516275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.94889912867451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9093552608904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.72063661544925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.76927510163897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.83046911632789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.86901939358954</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.88160604115438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.87456260319551</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.85924075414108</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.84234105989901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.82009074240389</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1140189268474</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.928155896987272</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.897172479966828</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.913481234730321</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.948732741421209</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.985317569903636</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.01767970627988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.04305288194064</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.05886266606621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.06652366254705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.618757216974215</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.385778069482009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$G$4:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7.86399587516968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.68991843945193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.20121390885986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.91470936974233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.00073262433374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.17817212150306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.41062911371695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3794243320807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.28808716211731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.40225954914194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.05962432964948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.99204734444642</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.74252983222629</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.87953090012126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.96234980211902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.01787419538709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.96311752695587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.99835940675879</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.07845457453335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.06791200247636</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.97884581698655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.93366176304831</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.08732899879927</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.09822742949498</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14135798914755</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.21644254957886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.29632248835096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.29061553091642</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.32854925751964</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.48247607711331</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.359987882474</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.40648028604384</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.81501506896101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.65236569885661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="10190528"/>
+        <c:axId val="78783950"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10190528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78783950"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78783950"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10190528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$H$4:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.248457586886392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.308312811834295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.356385179180541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.395275736600343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.425347291172861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.581361419610431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58521898198051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.577344565611513</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.581626547860587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.589524149534051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.598165613059166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.606585098761883</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.739519974032459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.756011380549633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.743377321723793</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.732789580695915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.726942161037826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.725168699924841</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.726340416515408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.728165185848463</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.730468044746779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.733387890358413</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.843123507043502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.868624765812324</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86820292207827</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.861337066453591</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.852892248658955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.845190434000991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.838988365056054</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.834138342847538</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.831388093444505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.829760184520675</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.913007878924623</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.955184738573885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$I$4:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.206974487561505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.208535632401054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.240371652082814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.248529449649215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32836251534954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.487705769709668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.459701338737516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.465138725494406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.478232419946244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.459012648879806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.502336564966124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.505340351901626</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.656979210496939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.632902544374125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.621148446154242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.614814560380583</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62430164959254</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61999433247748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.608260843430397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.613122890779971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62072424068079</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.628480159377603</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.745698264535907</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.741348011644183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.734117626853752</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.723567447811563</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.711730912900483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71294857152671</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.707985195744206</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.684116338780452</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.704153607034598</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.698424256996385</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.787194833967352</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.812097584433205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="35551047"/>
+        <c:axId val="93940676"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="35551047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93940676"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93940676"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35551047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1641,11 +3958,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="27716240"/>
-        <c:axId val="68884686"/>
+        <c:axId val="54712253"/>
+        <c:axId val="6158883"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27716240"/>
+        <c:axId val="54712253"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +3990,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68884686"/>
+        <c:crossAx val="6158883"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1681,7 +3998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68884686"/>
+        <c:axId val="6158883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +4035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27716240"/>
+        <c:crossAx val="54712253"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1766,7 +4083,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2084,11 +4401,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="4444360"/>
-        <c:axId val="3311254"/>
+        <c:axId val="17933719"/>
+        <c:axId val="62092212"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4444360"/>
+        <c:axId val="17933719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +4437,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3311254"/>
+        <c:crossAx val="62092212"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2128,7 +4445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3311254"/>
+        <c:axId val="62092212"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +4487,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4444360"/>
+        <c:crossAx val="17933719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2221,7 +4538,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2539,11 +4856,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="91853246"/>
-        <c:axId val="62182332"/>
+        <c:axId val="19414673"/>
+        <c:axId val="93807381"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91853246"/>
+        <c:axId val="19414673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +4892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62182332"/>
+        <c:crossAx val="93807381"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2583,7 +4900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62182332"/>
+        <c:axId val="93807381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,7 +4942,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91853246"/>
+        <c:crossAx val="19414673"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2676,7 +4993,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2844,11 +5161,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="98042098"/>
-        <c:axId val="1419133"/>
+        <c:axId val="94617102"/>
+        <c:axId val="42217456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98042098"/>
+        <c:axId val="94617102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,7 +5197,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419133"/>
+        <c:crossAx val="42217456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2888,7 +5205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1419133"/>
+        <c:axId val="42217456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +5247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98042098"/>
+        <c:crossAx val="94617102"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2981,7 +5298,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3149,11 +5466,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="66755950"/>
-        <c:axId val="5442275"/>
+        <c:axId val="48529006"/>
+        <c:axId val="53348797"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66755950"/>
+        <c:axId val="48529006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,7 +5502,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5442275"/>
+        <c:crossAx val="53348797"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3193,7 +5510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5442275"/>
+        <c:axId val="53348797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3235,7 +5552,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66755950"/>
+        <c:crossAx val="48529006"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3286,7 +5603,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3592,11 +5909,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="27683862"/>
-        <c:axId val="27336898"/>
+        <c:axId val="8470701"/>
+        <c:axId val="99683986"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27683862"/>
+        <c:axId val="8470701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +5945,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27336898"/>
+        <c:crossAx val="99683986"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3636,7 +5953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27336898"/>
+        <c:axId val="99683986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,7 +5995,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27683862"/>
+        <c:crossAx val="8470701"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3729,7 +6046,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4035,11 +6352,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90311438"/>
-        <c:axId val="23191966"/>
+        <c:axId val="590150"/>
+        <c:axId val="91195844"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90311438"/>
+        <c:axId val="590150"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4071,7 +6388,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23191966"/>
+        <c:crossAx val="91195844"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4079,7 +6396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23191966"/>
+        <c:axId val="91195844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,7 +6438,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90311438"/>
+        <c:crossAx val="590150"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4172,7 +6489,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4490,11 +6807,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="62693672"/>
-        <c:axId val="91242966"/>
+        <c:axId val="53561701"/>
+        <c:axId val="70493107"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62693672"/>
+        <c:axId val="53561701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4522,7 +6839,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91242966"/>
+        <c:crossAx val="70493107"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4530,7 +6847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91242966"/>
+        <c:axId val="70493107"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,2072 +6884,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62693672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00185589775108987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0544519756133533</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.208966143659152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.250243284687845</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.287193360931002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.444295910606053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.436198872378424</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.443989564036845</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.586991155021025</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.584778246516891</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.573221874991279</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.688017684376304</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.699378698243906</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.689023454296935</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.771655879417525</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.785847432538815</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.783409540709852</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.839000816423268</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.849566874897893</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.852010348374227</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.884896770652042</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89156254568632</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.894433873901569</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.912379728916562</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.915755766861459</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.91797833590912</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.926849076333965</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.928615667727108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.929790604498851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.934235313236684</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00845491314092381</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0679295509776476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.196582312177445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.223259168935107</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.258947386499274</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.381134019733283</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.384786995611964</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.388409057731445</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.550567181609748</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.544238448129288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.529379234540974</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.645987651670631</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.634736760753265</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.631789649042962</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.702784814474509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.695125071917426</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.692121284981924</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.735975887267825</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.734966037800658</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.735051909353988</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.754319768490292</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.753498836440452</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.753649970374314</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.761345778983796</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.761234145964466</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.761174035877135</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.764356435643564</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.764117712725305</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.764193279692236</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.765692597013387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="66965477"/>
-        <c:axId val="52208962"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="66965477"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="52208962"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52208962"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66965477"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$F$3:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>13.2911220875306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1565739873096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.38015146298086</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.78909771020646</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.69054519062976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.69390932958608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.33633438255402</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.25414069466926</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.41731034464568</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.27476635912415</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.74998132947662</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.63165559303129</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.31384694383829</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.23888945918424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.05971511533125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.01675930265443</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.923109705943105</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.900009032063832</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.852151367398607</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.840115406212541</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.815964254548281</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.80970306874589</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.796955464202241</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.794058374259812</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.787961874025212</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.786071386246339</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78297261371865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.782319134776835</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.780335663492004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.780088511123353</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.779602193349441</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.779269402959451</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.778507991293121</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.778189962887891</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.778630219977238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$G$3:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>11.7456774833819</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.39839814689176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.58690079368765</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.24594488736093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.23813637488704</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.23897833326614</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.83250248780678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.88216276905824</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.94347008720683</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9850573557513</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.52796452652087</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5336488031976</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.28182091310404</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.26567945803048</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1625007215685</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.14947701773318</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.10163072629201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.09711526925457</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.08435653188861</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.07641156525835</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.07020478432119</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.07095944476353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.06679461300688</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.06628478329558</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.06339049517884</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.06666638363244</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.06510078900175</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.06472995565963</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.06642012585873</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.06360308980986</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.06381776873721</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.06553455828212</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0656562489591</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.06184021668558</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.06403619279207</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="57137766"/>
-        <c:axId val="57817423"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="57137766"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="57817423"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="57817423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="57137766"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$H$4:$H$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.210061434616475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.250920381449781</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.288292730784481</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.446177999164041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.437912438121535</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.572937640332812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.571917272257517</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.672208956268437</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.682463945241463</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.754399143174193</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.766619086700802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.815286328849625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.824516656172454</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.854539693348587</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.860296089218769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.876703771025368</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.879958300800558</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.888461296535107</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.890292720909259</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.894677534277218</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.895653678531031</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.897941295238447</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.898267606930946</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.899259422733148</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.899724202216214</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.900192631237947</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.900291168781932</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.900630361199135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.900682098776696</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.900713871230966</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.90090815549525</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.900886258263253</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.90089291330435</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.900819707852283</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$I$4:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.19214618773239</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.241996341871828</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.257829338874911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.396716271800641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.401734605377277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.532863902175127</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.525420555932436</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.634377817660344</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.625119146780246</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.684834224966295</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.680952830755756</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.715383888779164</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.717297106987368</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.731859205001159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.732695593930599</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.739244158587585</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.740156114483955</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.741461362094579</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.74244888495788</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.743220011506788</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.74296067941573</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.743633912393841</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.743747262844238</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.743714631653972</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.74417662061089</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.743742110551038</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.743937897692631</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.744252187577821</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.743991138055696</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.744068422453694</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.74356865001331</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.743764437154904</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.744300275647686</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.744178338041957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="451486"/>
-        <c:axId val="36173089"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="451486"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36173089"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="36173089"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="451486"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet101_CosFace!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet101_CosFace!$F$4:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>7.3606</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3549</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.713</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2326</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.8831</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.288</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1487</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2033</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1689</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0992</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.021</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9489</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9094</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet101_CosFace!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet101_CosFace!$G$4:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>7.864</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1782</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4106</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3794</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2881</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.4023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0596</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.992</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.7425</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="9827666"/>
-        <c:axId val="63509594"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="9827666"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="63509594"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="63509594"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="9827666"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet101_CosFace!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet101_CosFace!$H$4:$H$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.2485</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3083</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3564</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3953</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4253</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5814</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5852</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5773</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5816</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5895</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5982</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6066</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7395</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet101_CosFace!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet101_CosFace!$I$4:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.207</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2085</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2485</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3284</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4877</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4597</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4651</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4782</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.459</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5053</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="70523949"/>
-        <c:axId val="75440566"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="70523949"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="75440566"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="75440566"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="70523949"/>
+        <c:crossAx val="53561701"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6691,9 +6943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>407880</xdr:colOff>
+      <xdr:colOff>406800</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6707,7 +6959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3246120"/>
-          <a:ext cx="4880160" cy="2792160"/>
+          <a:ext cx="4879080" cy="2791080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6728,9 +6980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>476280</xdr:colOff>
+      <xdr:colOff>475200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6744,7 +6996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="518400"/>
-          <a:ext cx="4857480" cy="2791800"/>
+          <a:ext cx="4856400" cy="2790720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6770,9 +7022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>126360</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6786,7 +7038,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3714480"/>
-          <a:ext cx="3796200" cy="2933640"/>
+          <a:ext cx="3795120" cy="2932560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6807,9 +7059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>100800</xdr:colOff>
+      <xdr:colOff>99720</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6823,7 +7075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3677400"/>
-          <a:ext cx="4494960" cy="2832120"/>
+          <a:ext cx="4493880" cy="2831040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6844,9 +7096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
+      <xdr:colOff>115920</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6860,7 +7112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="351000"/>
-          <a:ext cx="3756960" cy="2941200"/>
+          <a:ext cx="3755880" cy="2940120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6881,9 +7133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
+      <xdr:colOff>63720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6897,7 +7149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="312840"/>
-          <a:ext cx="4342680" cy="2913480"/>
+          <a:ext cx="4341600" cy="2912400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6918,9 +7170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>806400</xdr:colOff>
+      <xdr:colOff>805320</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6929,7 +7181,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6721560"/>
-        <a:ext cx="5753160" cy="3241080"/>
+        <a:ext cx="5752080" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6948,9 +7200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>242640</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6959,7 +7211,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6726960"/>
-        <a:ext cx="5753160" cy="3241080"/>
+        <a:ext cx="5752080" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6983,9 +7235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
+      <xdr:colOff>48600</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6994,7 +7246,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5879880"/>
-        <a:ext cx="5833800" cy="2978640"/>
+        <a:ext cx="5832720" cy="2977560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7013,9 +7265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>631080</xdr:colOff>
+      <xdr:colOff>630000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7024,7 +7276,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5792400"/>
-        <a:ext cx="6239880" cy="3243240"/>
+        <a:ext cx="6238800" cy="3242160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7048,9 +7300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
+      <xdr:colOff>48600</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7059,7 +7311,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5673960"/>
-        <a:ext cx="5833800" cy="2978640"/>
+        <a:ext cx="5832720" cy="2977560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7078,9 +7330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>631080</xdr:colOff>
+      <xdr:colOff>630000</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7089,7 +7341,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5586480"/>
-        <a:ext cx="6239880" cy="3243600"/>
+        <a:ext cx="6238800" cy="3242520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7113,9 +7365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>80280</xdr:colOff>
+      <xdr:colOff>79200</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7124,7 +7376,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3480840" y="6023880"/>
-        <a:ext cx="5757120" cy="3237120"/>
+        <a:ext cx="5756040" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7143,9 +7395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>282600</xdr:colOff>
+      <xdr:colOff>281520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7154,7 +7406,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9551880" y="6044760"/>
-        <a:ext cx="5757120" cy="3237120"/>
+        <a:ext cx="5756040" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7178,9 +7430,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1114560</xdr:colOff>
+      <xdr:colOff>1113480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7189,7 +7441,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3101400" y="7093800"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7208,9 +7460,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>498600</xdr:colOff>
+      <xdr:colOff>497520</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7219,7 +7471,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9006120" y="6987960"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7243,9 +7495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1114560</xdr:colOff>
+      <xdr:colOff>1113480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7254,7 +7506,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3101400" y="7093800"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7273,9 +7525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>498600</xdr:colOff>
+      <xdr:colOff>497520</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7284,7 +7536,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9006120" y="6987960"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7308,9 +7560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7324,7 +7576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="572040"/>
-          <a:ext cx="5092200" cy="2609280"/>
+          <a:ext cx="5091120" cy="2608200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7350,9 +7602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7366,7 +7618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4426560"/>
-          <a:ext cx="4888080" cy="3588120"/>
+          <a:ext cx="4887000" cy="3587040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7387,9 +7639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>525240</xdr:colOff>
+      <xdr:colOff>524160</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7403,7 +7655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="353880"/>
-          <a:ext cx="4770720" cy="3732480"/>
+          <a:ext cx="4769640" cy="3731400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7429,9 +7681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>401760</xdr:colOff>
+      <xdr:colOff>400680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7445,7 +7697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5544000" cy="3068640"/>
+          <a:ext cx="5542920" cy="3067560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7466,9 +7718,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
+      <xdr:colOff>408600</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7482,7 +7734,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3256560"/>
-          <a:ext cx="5650560" cy="2969280"/>
+          <a:ext cx="5649480" cy="2968200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7508,9 +7760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7524,7 +7776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="305280"/>
-          <a:ext cx="5023800" cy="2868120"/>
+          <a:ext cx="5022720" cy="2867040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7550,9 +7802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>135360</xdr:colOff>
+      <xdr:colOff>134280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7566,7 +7818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3703680"/>
-          <a:ext cx="5338440" cy="3071160"/>
+          <a:ext cx="5337360" cy="3070080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7587,9 +7839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>135360</xdr:colOff>
+      <xdr:colOff>134280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7603,7 +7855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="342720"/>
-          <a:ext cx="5336640" cy="3066120"/>
+          <a:ext cx="5335560" cy="3065040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7629,9 +7881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>34560</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7645,7 +7897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3385440"/>
-          <a:ext cx="6042240" cy="3797280"/>
+          <a:ext cx="6041160" cy="3796200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7666,9 +7918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>34560</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7682,7 +7934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="183240"/>
-          <a:ext cx="6063840" cy="3165840"/>
+          <a:ext cx="6062760" cy="3164760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7708,9 +7960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201240</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7724,7 +7976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4275360"/>
-          <a:ext cx="4710960" cy="3497040"/>
+          <a:ext cx="4709880" cy="3495960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7745,9 +7997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>215280</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7761,7 +8013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="457200"/>
-          <a:ext cx="4682520" cy="3656520"/>
+          <a:ext cx="4681440" cy="3655440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7787,9 +8039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>272520</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7803,7 +8055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4499640"/>
-          <a:ext cx="5011560" cy="3598560"/>
+          <a:ext cx="5010480" cy="3597480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7824,9 +8076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>240480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7840,7 +8092,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="252720"/>
-          <a:ext cx="4751280" cy="3670920"/>
+          <a:ext cx="4750200" cy="3669840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7861,9 +8113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>907200</xdr:colOff>
+      <xdr:colOff>906120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7872,7 +8124,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2757240" y="5026320"/>
-        <a:ext cx="5756400" cy="3236400"/>
+        <a:ext cx="5755320" cy="3235320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7891,9 +8143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>852840</xdr:colOff>
+      <xdr:colOff>851760</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7902,7 +8154,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2702880" y="8618040"/>
-        <a:ext cx="5756400" cy="3236400"/>
+        <a:ext cx="5755320" cy="3235320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13143,9 +13395,9 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
+      <selection pane="bottomLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13199,16 +13451,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>28.0287</v>
+        <v>28.0286905948793</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>18.2276</v>
+        <v>18.2275985718003</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000981511222438738</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.0051</v>
+        <v>0.00512653173383253</v>
       </c>
       <c r="J2" s="4" t="n">
         <f aca="false">ROUND(I2*100, 2)</f>
@@ -13227,16 +13479,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>12.784</v>
+        <v>12.7840073167668</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>11.594</v>
+        <v>11.5939521628515</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.0629</v>
+        <v>0.0629036631278307</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.0669</v>
+        <v>0.0669231363726138</v>
       </c>
       <c r="J3" s="4" t="n">
         <f aca="false">ROUND(I3*100, 2)</f>
@@ -13255,16 +13507,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7.3606</v>
+        <v>7.36058182482198</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>7.864</v>
+        <v>7.86399587516968</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.2485</v>
+        <v>0.248457586886392</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.207</v>
+        <v>0.206974487561505</v>
       </c>
       <c r="J4" s="4" t="n">
         <f aca="false">ROUND(I4*100, 2)</f>
@@ -13278,16 +13530,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>6.3549</v>
+        <v>6.35490565587769</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>7.6899</v>
+        <v>7.68991843945193</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.3083</v>
+        <v>0.308312811834295</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.2085</v>
+        <v>0.208535632401054</v>
       </c>
       <c r="J5" s="4" t="n">
         <f aca="false">ROUND(I5*100, 2)</f>
@@ -13302,16 +13554,16 @@
         <v>5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>5.713</v>
+        <v>5.71297521220361</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>7.2012</v>
+        <v>7.20121390885986</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.3564</v>
+        <v>0.356385179180541</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.2404</v>
+        <v>0.240371652082814</v>
       </c>
       <c r="J6" s="4" t="n">
         <f aca="false">ROUND(I6*100, 2)</f>
@@ -13326,16 +13578,16 @@
         <v>6</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5.2326</v>
+        <v>5.23255759917272</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>6.9147</v>
+        <v>6.91470936974233</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.3953</v>
+        <v>0.395275736600343</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.2485</v>
+        <v>0.248529449649215</v>
       </c>
       <c r="J7" s="4" t="n">
         <f aca="false">ROUND(I7*100, 2)</f>
@@ -13351,16 +13603,16 @@
         <v>7</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4.8831</v>
+        <v>4.88311789976892</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>6.0007</v>
+        <v>6.00073262433374</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.4253</v>
+        <v>0.425347291172861</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.3284</v>
+        <v>0.32836251534954</v>
       </c>
       <c r="J8" s="4" t="n">
         <f aca="false">ROUND(I8*100, 2)</f>
@@ -13375,16 +13627,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3.288</v>
+        <v>3.28802951525046</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>4.1782</v>
+        <v>4.17817212150306</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.5814</v>
+        <v>0.581361419610431</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.4877</v>
+        <v>0.487705769709668</v>
       </c>
       <c r="J9" s="4" t="n">
         <f aca="false">ROUND(I9*100, 2)</f>
@@ -13396,16 +13648,16 @@
         <v>9</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3.1487</v>
+        <v>3.14873417024348</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>4.4106</v>
+        <v>4.41062911371695</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.5852</v>
+        <v>0.58521898198051</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.4597</v>
+        <v>0.459701338737516</v>
       </c>
       <c r="J10" s="4" t="n">
         <f aca="false">ROUND(I10*100, 2)</f>
@@ -13424,16 +13676,16 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3.2033</v>
+        <v>3.2032749676886</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>4.3794</v>
+        <v>4.3794243320807</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.5773</v>
+        <v>0.577344565611513</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.4651</v>
+        <v>0.465138725494406</v>
       </c>
       <c r="J11" s="4" t="n">
         <f aca="false">ROUND(I11*100, 2)</f>
@@ -13445,16 +13697,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3.1689</v>
+        <v>3.16889706757809</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>4.2881</v>
+        <v>4.28808716211731</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.5816</v>
+        <v>0.581626547860587</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.4782</v>
+        <v>0.478232419946244</v>
       </c>
       <c r="J12" s="4" t="n">
         <f aca="false">ROUND(I12*100, 2)</f>
@@ -13472,16 +13724,16 @@
         <v>12</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3.0992</v>
+        <v>3.09924728617854</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4.4023</v>
+        <v>4.40225954914194</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.5895</v>
+        <v>0.589524149534051</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.459</v>
+        <v>0.459012648879806</v>
       </c>
       <c r="J13" s="4" t="n">
         <f aca="false">ROUND(I13*100, 2)</f>
@@ -13494,16 +13746,16 @@
         <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3.021</v>
+        <v>3.02097690516275</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>4.0596</v>
+        <v>4.05962432964948</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.5982</v>
+        <v>0.598165613059166</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.5023</v>
+        <v>0.502336564966124</v>
       </c>
       <c r="J14" s="4" t="n">
         <f aca="false">ROUND(I14*100, 2)</f>
@@ -13521,16 +13773,16 @@
         <v>14</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.9489</v>
+        <v>2.94889912867451</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>3.992</v>
+        <v>3.99204734444642</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.6066</v>
+        <v>0.606585098761883</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.5053</v>
+        <v>0.505340351901626</v>
       </c>
       <c r="J15" s="4" t="n">
         <f aca="false">ROUND(I15*100, 2)</f>
@@ -13548,16 +13800,16 @@
         <v>15</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1.9094</v>
+        <v>1.9093552608904</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2.7425</v>
+        <v>2.74252983222629</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.7395</v>
+        <v>0.739519974032459</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.657</v>
+        <v>0.656979210496939</v>
       </c>
       <c r="J16" s="4" t="n">
         <f aca="false">ROUND(I16*100, 2)</f>
@@ -13569,9 +13821,21 @@
       <c r="E17" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="F17" s="0" t="n">
+        <v>1.72063661544925</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2.87953090012126</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.756011380549633</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.632902544374125</v>
+      </c>
       <c r="J17" s="4" t="n">
         <f aca="false">ROUND(I17*100, 2)</f>
-        <v>0</v>
+        <v>63.29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13584,18 +13848,42 @@
       <c r="E18" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <v>1.76927510163897</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2.96234980211902</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.743377321723793</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.621148446154242</v>
+      </c>
       <c r="J18" s="4" t="n">
         <f aca="false">ROUND(I18*100, 2)</f>
-        <v>0</v>
+        <v>62.11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="F19" s="0" t="n">
+        <v>1.83046911632789</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3.01787419538709</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.732789580695915</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.614814560380583</v>
+      </c>
       <c r="J19" s="4" t="n">
         <f aca="false">ROUND(I19*100, 2)</f>
-        <v>0</v>
+        <v>61.48</v>
       </c>
       <c r="K19" s="9"/>
     </row>
@@ -13609,18 +13897,42 @@
       <c r="E20" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="F20" s="0" t="n">
+        <v>1.86901939358954</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2.96311752695587</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.726942161037826</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.62430164959254</v>
+      </c>
       <c r="J20" s="4" t="n">
         <f aca="false">ROUND(I20*100, 2)</f>
-        <v>0</v>
+        <v>62.43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="F21" s="0" t="n">
+        <v>1.88160604115438</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2.99835940675879</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.725168699924841</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.61999433247748</v>
+      </c>
       <c r="J21" s="4" t="n">
         <f aca="false">ROUND(I21*100, 2)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13630,9 +13942,21 @@
       <c r="E22" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="F22" s="0" t="n">
+        <v>1.87456260319551</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3.07845457453335</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.726340416515408</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.608260843430397</v>
+      </c>
       <c r="J22" s="4" t="n">
         <f aca="false">ROUND(I22*100, 2)</f>
-        <v>0</v>
+        <v>60.83</v>
       </c>
       <c r="K22" s="9"/>
     </row>
@@ -13646,9 +13970,21 @@
       <c r="E23" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="F23" s="0" t="n">
+        <v>1.85924075414108</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>3.06791200247636</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.728165185848463</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.613122890779971</v>
+      </c>
       <c r="J23" s="4" t="n">
         <f aca="false">ROUND(I23*100, 2)</f>
-        <v>0</v>
+        <v>61.31</v>
       </c>
       <c r="K23" s="6"/>
     </row>
@@ -13662,9 +13998,21 @@
       <c r="E24" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="F24" s="0" t="n">
+        <v>1.84234105989901</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2.97884581698655</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.730468044746779</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.62072424068079</v>
+      </c>
       <c r="J24" s="4" t="n">
         <f aca="false">ROUND(I24*100, 2)</f>
-        <v>0</v>
+        <v>62.07</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -13672,9 +14020,21 @@
       <c r="E25" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="F25" s="0" t="n">
+        <v>1.82009074240389</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2.93366176304831</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.733387890358413</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.628480159377603</v>
+      </c>
       <c r="J25" s="4" t="n">
         <f aca="false">ROUND(I25*100, 2)</f>
-        <v>0</v>
+        <v>62.85</v>
       </c>
       <c r="K25" s="9"/>
     </row>
@@ -13682,9 +14042,21 @@
       <c r="E26" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="F26" s="0" t="n">
+        <v>1.1140189268474</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2.08732899879927</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.843123507043502</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.745698264535907</v>
+      </c>
       <c r="J26" s="4" t="n">
         <f aca="false">ROUND(I26*100, 2)</f>
-        <v>0</v>
+        <v>74.57</v>
       </c>
       <c r="K26" s="6"/>
     </row>
@@ -13698,9 +14070,21 @@
       <c r="E27" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="F27" s="0" t="n">
+        <v>0.928155896987272</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2.09822742949498</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.868624765812324</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.741348011644183</v>
+      </c>
       <c r="J27" s="4" t="n">
         <f aca="false">ROUND(I27*100, 2)</f>
-        <v>0</v>
+        <v>74.13</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -13714,9 +14098,21 @@
       <c r="E28" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="F28" s="0" t="n">
+        <v>0.897172479966828</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2.14135798914755</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.86820292207827</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.734117626853752</v>
+      </c>
       <c r="J28" s="4" t="n">
         <f aca="false">ROUND(I28*100, 2)</f>
-        <v>0</v>
+        <v>73.41</v>
       </c>
       <c r="K28" s="9"/>
     </row>
@@ -13731,9 +14127,21 @@
       <c r="E29" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="F29" s="0" t="n">
+        <v>0.913481234730321</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2.21644254957886</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.861337066453591</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.723567447811563</v>
+      </c>
       <c r="J29" s="4" t="n">
         <f aca="false">ROUND(I29*100, 2)</f>
-        <v>0</v>
+        <v>72.36</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13747,9 +14155,21 @@
       <c r="E30" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="F30" s="0" t="n">
+        <v>0.948732741421209</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2.29632248835096</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.852892248658955</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.711730912900483</v>
+      </c>
       <c r="J30" s="4" t="n">
         <f aca="false">ROUND(I30*100, 2)</f>
-        <v>0</v>
+        <v>71.17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13763,9 +14183,21 @@
       <c r="E31" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="F31" s="0" t="n">
+        <v>0.985317569903636</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2.29061553091642</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.845190434000991</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.71294857152671</v>
+      </c>
       <c r="J31" s="4" t="n">
         <f aca="false">ROUND(I31*100, 2)</f>
-        <v>0</v>
+        <v>71.29</v>
       </c>
       <c r="K31" s="9"/>
     </row>
@@ -13780,9 +14212,21 @@
       <c r="E32" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="F32" s="0" t="n">
+        <v>1.01767970627988</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2.32854925751964</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.838988365056054</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.707985195744206</v>
+      </c>
       <c r="J32" s="4" t="n">
         <f aca="false">ROUND(I32*100, 2)</f>
-        <v>0</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13796,18 +14240,42 @@
       <c r="E33" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="F33" s="0" t="n">
+        <v>1.04305288194064</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2.48247607711331</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.834138342847538</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.684116338780452</v>
+      </c>
       <c r="J33" s="4" t="n">
         <f aca="false">ROUND(I33*100, 2)</f>
-        <v>0</v>
+        <v>68.41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="F34" s="0" t="n">
+        <v>1.05886266606621</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>2.359987882474</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.831388093444505</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.704153607034598</v>
+      </c>
       <c r="J34" s="4" t="n">
         <f aca="false">ROUND(I34*100, 2)</f>
-        <v>0</v>
+        <v>70.42</v>
       </c>
       <c r="K34" s="9"/>
     </row>
@@ -13815,27 +14283,63 @@
       <c r="E35" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="F35" s="0" t="n">
+        <v>1.06652366254705</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>2.40648028604384</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.829760184520675</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.698424256996385</v>
+      </c>
       <c r="J35" s="4" t="n">
         <f aca="false">ROUND(I35*100, 2)</f>
-        <v>0</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="F36" s="0" t="n">
+        <v>0.618757216974215</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1.81501506896101</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.913007878924623</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.787194833967352</v>
+      </c>
       <c r="J36" s="4" t="n">
         <f aca="false">ROUND(I36*100, 2)</f>
-        <v>0</v>
+        <v>78.72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="F37" s="0" t="n">
+        <v>0.385778069482009</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1.65236569885661</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.955184738573885</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.812097584433205</v>
+      </c>
       <c r="J37" s="4" t="n">
         <f aca="false">ROUND(I37*100, 2)</f>
-        <v>0</v>
+        <v>81.21</v>
       </c>
       <c r="K37" s="9"/>
     </row>
@@ -13846,7 +14350,7 @@
       </c>
       <c r="J39" s="3" t="n">
         <f aca="false">MAX(J2:J38)</f>
-        <v>65.7</v>
+        <v>81.21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/records/outputs.xlsx
+++ b/records/outputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1(no use)" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,7 @@
     <sheet name="ResNet50_CosFacev2_new" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="ResNet50_CosFacev2_new_2" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="ResNet101_CosFace" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="ResNet101_CosFace_48ep" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="302">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -789,6 +790,9 @@
     <t xml:space="preserve">20, 21</t>
   </si>
   <si>
+    <t xml:space="preserve">ResNet50_CosFace_20_Mar_36</t>
+  </si>
+  <si>
     <t xml:space="preserve">22, 23</t>
   </si>
   <si>
@@ -813,6 +817,36 @@
     <t xml:space="preserve">36 ep</t>
   </si>
   <si>
+    <t xml:space="preserve">512-d_24Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_27</t>
+  </si>
+  <si>
     <t xml:space="preserve">3-7 ep</t>
   </si>
   <si>
@@ -822,10 +856,91 @@
     <t xml:space="preserve">15-24 ep</t>
   </si>
   <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_30</t>
+  </si>
+  <si>
     <t xml:space="preserve">25-34 ep</t>
   </si>
   <si>
     <t xml:space="preserve">35 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_24_Mar_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFW Verification Acc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512-d_04May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-19 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-26 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-34 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-42 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43-47 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet100_CosFace_04_May_48</t>
   </si>
 </sst>
 </file>
@@ -880,7 +995,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,7 +1029,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFB3B3B3"/>
+        <bgColor rgb="FF81D41A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -959,7 +1080,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1010,6 +1131,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1065,12 +1190,12 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF5983B0"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1084,7 +1209,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1366,11 +1491,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="92412896"/>
-        <c:axId val="13201898"/>
+        <c:axId val="94621882"/>
+        <c:axId val="54821484"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92412896"/>
+        <c:axId val="94621882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1523,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13201898"/>
+        <c:crossAx val="54821484"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1406,7 +1531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13201898"/>
+        <c:axId val="54821484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1568,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92412896"/>
+        <c:crossAx val="94621882"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1491,2324 +1616,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00185589775108987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0544519756133533</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.208966143659152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.250243284687845</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.287193360931002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.444295910606053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.436198872378424</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.443989564036845</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.586991155021025</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.584778246516891</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.573221874991279</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.688017684376304</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.699378698243906</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.689023454296935</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.771655879417525</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.785847432538815</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.783409540709852</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.839000816423268</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.849566874897893</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.852010348374227</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.884896770652042</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89156254568632</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.894433873901569</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.912379728916562</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.915755766861459</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.91797833590912</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.926849076333965</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.928615667727108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.929790604498851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.934235313236684</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00845491314092381</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0679295509776476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.196582312177445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.223259168935107</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.258947386499274</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.381134019733283</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.384786995611964</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.388409057731445</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.550567181609748</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.544238448129288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.529379234540974</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.645987651670631</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.634736760753265</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.631789649042962</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.702784814474509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.695125071917426</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.692121284981924</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.735975887267825</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.734966037800658</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.735051909353988</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.754319768490292</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.753498836440452</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.753649970374314</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.761345778983796</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.761234145964466</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.761174035877135</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.764356435643564</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.764117712725305</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.764193279692236</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.765692597013387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="62504735"/>
-        <c:axId val="469958"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="62504735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="469958"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="469958"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62504735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$F$3:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>13.2911220875306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1565739873096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.38015146298086</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.78909771020646</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.69054519062976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.69390932958608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.33633438255402</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.25414069466926</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.41731034464568</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.27476635912415</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.74998132947662</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.63165559303129</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.31384694383829</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.23888945918424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.05971511533125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.01675930265443</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.923109705943105</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.900009032063832</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.852151367398607</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.840115406212541</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.815964254548281</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.80970306874589</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.796955464202241</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.794058374259812</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.787961874025212</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.786071386246339</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78297261371865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.782319134776835</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.780335663492004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.780088511123353</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.779602193349441</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.779269402959451</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.778507991293121</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.778189962887891</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.778630219977238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$G$3:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>11.7456774833819</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.39839814689176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.58690079368765</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.24594488736093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.23813637488704</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.23897833326614</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.83250248780678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.88216276905824</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.94347008720683</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9850573557513</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.52796452652087</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5336488031976</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.28182091310404</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.26567945803048</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1625007215685</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.14947701773318</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.10163072629201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.09711526925457</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.08435653188861</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.07641156525835</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.07020478432119</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.07095944476353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.06679461300688</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.06628478329558</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.06339049517884</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.06666638363244</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.06510078900175</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.06472995565963</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.06642012585873</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.06360308980986</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.06381776873721</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.06553455828212</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0656562489591</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.06184021668558</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.06403619279207</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="51735789"/>
-        <c:axId val="75579421"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="51735789"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="75579421"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="75579421"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51735789"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$H$4:$H$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.210061434616475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.250920381449781</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.288292730784481</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.446177999164041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.437912438121535</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.572937640332812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.571917272257517</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.672208956268437</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.682463945241463</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.754399143174193</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.766619086700802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.815286328849625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.824516656172454</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.854539693348587</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.860296089218769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.876703771025368</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.879958300800558</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.888461296535107</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.890292720909259</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.894677534277218</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.895653678531031</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.897941295238447</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.898267606930946</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.899259422733148</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.899724202216214</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.900192631237947</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.900291168781932</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.900630361199135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.900682098776696</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.900713871230966</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.90090815549525</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.900886258263253</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.90089291330435</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.900819707852283</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet50_CosFacev2_new_2!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet50_CosFacev2_new_2!$I$4:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.19214618773239</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.241996341871828</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.257829338874911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.396716271800641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.401734605377277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.532863902175127</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.525420555932436</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.634377817660344</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.625119146780246</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.684834224966295</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.680952830755756</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.715383888779164</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.717297106987368</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.731859205001159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.732695593930599</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.739244158587585</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.740156114483955</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.741461362094579</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.74244888495788</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.743220011506788</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.74296067941573</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.743633912393841</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.743747262844238</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.743714631653972</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.74417662061089</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.743742110551038</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.743937897692631</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.744252187577821</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.743991138055696</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.744068422453694</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.74356865001331</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.743764437154904</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.744300275647686</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.744178338041957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="56943321"/>
-        <c:axId val="46833210"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="56943321"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="46833210"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="46833210"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="56943321"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet101_CosFace!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet101_CosFace!$F$4:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>7.36058182482198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.35490565587769</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.71297521220361</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.23255759917272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.88311789976892</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.28802951525046</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.14873417024348</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2032749676886</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.16889706757809</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.09924728617854</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.02097690516275</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.94889912867451</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9093552608904</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.72063661544925</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.76927510163897</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.83046911632789</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.86901939358954</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.88160604115438</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.87456260319551</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.85924075414108</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.84234105989901</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.82009074240389</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1140189268474</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.928155896987272</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.897172479966828</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.913481234730321</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.948732741421209</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.985317569903636</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.01767970627988</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.04305288194064</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.05886266606621</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.06652366254705</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.618757216974215</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.385778069482009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet101_CosFace!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet101_CosFace!$G$4:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>7.86399587516968</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.68991843945193</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.20121390885986</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.91470936974233</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.00073262433374</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.17817212150306</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.41062911371695</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3794243320807</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.28808716211731</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.40225954914194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.05962432964948</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.99204734444642</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.74252983222629</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.87953090012126</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.96234980211902</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.01787419538709</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.96311752695587</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.99835940675879</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.07845457453335</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.06791200247636</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.97884581698655</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.93366176304831</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.08732899879927</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.09822742949498</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.14135798914755</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.21644254957886</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.29632248835096</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.29061553091642</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.32854925751964</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.48247607711331</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.359987882474</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.40648028604384</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.81501506896101</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.65236569885661</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="10190528"/>
-        <c:axId val="78783950"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="10190528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="78783950"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="78783950"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="10190528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet101_CosFace!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet101_CosFace!$H$4:$H$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.248457586886392</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.308312811834295</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.356385179180541</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.395275736600343</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.425347291172861</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.581361419610431</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.58521898198051</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.577344565611513</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.581626547860587</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.589524149534051</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.598165613059166</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.606585098761883</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.739519974032459</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.756011380549633</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.743377321723793</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.732789580695915</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.726942161037826</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.725168699924841</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.726340416515408</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.728165185848463</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.730468044746779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.733387890358413</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.843123507043502</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.868624765812324</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.86820292207827</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.861337066453591</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.852892248658955</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.845190434000991</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.838988365056054</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.834138342847538</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.831388093444505</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.829760184520675</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.913007878924623</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.955184738573885</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ResNet101_CosFace!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Val Acc.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ResNet101_CosFace!$I$4:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0.206974487561505</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.208535632401054</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.240371652082814</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.248529449649215</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32836251534954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.487705769709668</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.459701338737516</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.465138725494406</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.478232419946244</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.459012648879806</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.502336564966124</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.505340351901626</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.656979210496939</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.632902544374125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.621148446154242</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.614814560380583</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.62430164959254</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.61999433247748</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.608260843430397</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.613122890779971</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.62072424068079</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.628480159377603</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.745698264535907</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.741348011644183</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.734117626853752</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.723567447811563</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.711730912900483</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.71294857152671</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.707985195744206</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.684116338780452</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.704153607034598</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.698424256996385</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.787194833967352</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.812097584433205</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="35551047"/>
-        <c:axId val="93940676"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="35551047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93940676"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="93940676"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="35551047"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3958,11 +1766,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="54712253"/>
-        <c:axId val="6158883"/>
+        <c:axId val="33004280"/>
+        <c:axId val="60118191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54712253"/>
+        <c:axId val="33004280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3990,7 +1798,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6158883"/>
+        <c:crossAx val="60118191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3998,7 +1806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6158883"/>
+        <c:axId val="60118191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,7 +1843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54712253"/>
+        <c:crossAx val="33004280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4083,7 +1891,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4401,11 +2209,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17933719"/>
-        <c:axId val="62092212"/>
+        <c:axId val="17488404"/>
+        <c:axId val="44611553"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17933719"/>
+        <c:axId val="17488404"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4437,7 +2245,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62092212"/>
+        <c:crossAx val="44611553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4445,7 +2253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62092212"/>
+        <c:axId val="44611553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4487,7 +2295,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17933719"/>
+        <c:crossAx val="17488404"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4538,7 +2346,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4856,11 +2664,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="19414673"/>
-        <c:axId val="93807381"/>
+        <c:axId val="80030547"/>
+        <c:axId val="70372123"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19414673"/>
+        <c:axId val="80030547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4892,7 +2700,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93807381"/>
+        <c:crossAx val="70372123"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4900,7 +2708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93807381"/>
+        <c:axId val="70372123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4942,7 +2750,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19414673"/>
+        <c:crossAx val="80030547"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4993,7 +2801,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5161,11 +2969,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94617102"/>
-        <c:axId val="42217456"/>
+        <c:axId val="77957428"/>
+        <c:axId val="19162978"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94617102"/>
+        <c:axId val="77957428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5197,7 +3005,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42217456"/>
+        <c:crossAx val="19162978"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5205,7 +3013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42217456"/>
+        <c:axId val="19162978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5247,7 +3055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94617102"/>
+        <c:crossAx val="77957428"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5298,7 +3106,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5466,11 +3274,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48529006"/>
-        <c:axId val="53348797"/>
+        <c:axId val="92299059"/>
+        <c:axId val="11277854"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48529006"/>
+        <c:axId val="92299059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,7 +3310,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53348797"/>
+        <c:crossAx val="11277854"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5510,7 +3318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53348797"/>
+        <c:axId val="11277854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5552,7 +3360,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48529006"/>
+        <c:crossAx val="92299059"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5603,7 +3411,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5909,11 +3717,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8470701"/>
-        <c:axId val="99683986"/>
+        <c:axId val="94627102"/>
+        <c:axId val="70995161"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8470701"/>
+        <c:axId val="94627102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5945,7 +3753,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99683986"/>
+        <c:crossAx val="70995161"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5953,7 +3761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99683986"/>
+        <c:axId val="70995161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5995,7 +3803,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8470701"/>
+        <c:crossAx val="94627102"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6046,7 +3854,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6352,11 +4160,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="590150"/>
-        <c:axId val="91195844"/>
+        <c:axId val="64147309"/>
+        <c:axId val="13459941"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="590150"/>
+        <c:axId val="64147309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6388,7 +4196,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91195844"/>
+        <c:crossAx val="13459941"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6396,7 +4204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91195844"/>
+        <c:axId val="13459941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6438,7 +4246,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590150"/>
+        <c:crossAx val="64147309"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6489,7 +4297,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6807,11 +4615,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="53561701"/>
-        <c:axId val="70493107"/>
+        <c:axId val="75687466"/>
+        <c:axId val="31593061"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53561701"/>
+        <c:axId val="75687466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6839,7 +4647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70493107"/>
+        <c:crossAx val="31593061"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6847,7 +4655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70493107"/>
+        <c:axId val="31593061"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6884,7 +4692,3426 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53561701"/>
+        <c:crossAx val="75687466"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00185589775108987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0544519756133533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.208966143659152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.250243284687845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.287193360931002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.444295910606053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.436198872378424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.443989564036845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.586991155021025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.584778246516891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.573221874991279</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.688017684376304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.699378698243906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.689023454296935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.771655879417525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.785847432538815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.783409540709852</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.839000816423268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.849566874897893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.852010348374227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.884896770652042</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89156254568632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.894433873901569</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.912379728916562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.915755766861459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91797833590912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.926849076333965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.928615667727108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.929790604498851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.934235313236684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00845491314092381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0679295509776476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.196582312177445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.223259168935107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.258947386499274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.381134019733283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.384786995611964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.388409057731445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.550567181609748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.544238448129288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.529379234540974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.645987651670631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.634736760753265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.631789649042962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.702784814474509</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.695125071917426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.692121284981924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.735975887267825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.734966037800658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.735051909353988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.754319768490292</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.753498836440452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.753649970374314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.761345778983796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.761234145964466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.761174035877135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.764356435643564</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.764117712725305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.764193279692236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.765692597013387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="74018481"/>
+        <c:axId val="19825510"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74018481"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19825510"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19825510"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74018481"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$F$3:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>13.2911220875306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1565739873096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.38015146298086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.78909771020646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.69054519062976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.69390932958608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.33633438255402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.25414069466926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.41731034464568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.27476635912415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.74998132947662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.63165559303129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31384694383829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.23888945918424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05971511533125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.01675930265443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.923109705943105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.900009032063832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.852151367398607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.840115406212541</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.815964254548281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80970306874589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.796955464202241</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.794058374259812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.787961874025212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.786071386246339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78297261371865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.782319134776835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.780335663492004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.780088511123353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.779602193349441</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.779269402959451</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.778507991293121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.778189962887891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.778630219977238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$G$3:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>11.7456774833819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.39839814689176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.58690079368765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.24594488736093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23813637488704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.23897833326614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.83250248780678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.88216276905824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.94347008720683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9850573557513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.52796452652087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5336488031976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.28182091310404</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.26567945803048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1625007215685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.14947701773318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.10163072629201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.09711526925457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.08435653188861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.07641156525835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.07020478432119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.07095944476353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.06679461300688</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.06628478329558</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.06339049517884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.06666638363244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.06510078900175</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.06472995565963</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.06642012585873</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.06360308980986</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.06381776873721</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.06553455828212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0656562489591</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.06184021668558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.06403619279207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="48163091"/>
+        <c:axId val="73546569"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="48163091"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73546569"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73546569"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48163091"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$H$4:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.210061434616475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.250920381449781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.288292730784481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.446177999164041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.437912438121535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.572937640332812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.571917272257517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.672208956268437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.682463945241463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.754399143174193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.766619086700802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.815286328849625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.824516656172454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.854539693348587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.860296089218769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.876703771025368</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.879958300800558</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.888461296535107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.890292720909259</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.894677534277218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.895653678531031</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.897941295238447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.898267606930946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.899259422733148</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.899724202216214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.900192631237947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.900291168781932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.900630361199135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.900682098776696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.900713871230966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.90090815549525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.900886258263253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90089291330435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.900819707852283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet50_CosFacev2_new_2!$I$4:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.19214618773239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.241996341871828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.257829338874911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.396716271800641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.401734605377277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.532863902175127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.525420555932436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.634377817660344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625119146780246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.684834224966295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.680952830755756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.715383888779164</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.717297106987368</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.731859205001159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.732695593930599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.739244158587585</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.740156114483955</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.741461362094579</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74244888495788</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.743220011506788</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74296067941573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.743633912393841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.743747262844238</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.743714631653972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74417662061089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.743742110551038</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.743937897692631</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.744252187577821</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.743991138055696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.744068422453694</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74356865001331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.743764437154904</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.744300275647686</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.744178338041957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="78563186"/>
+        <c:axId val="18066744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78563186"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18066744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="18066744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78563186"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$F$4:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7.36058182482198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.35490565587769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.71297521220361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.23255759917272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.88311789976892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.28802951525046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.14873417024348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2032749676886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.16889706757809</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.09924728617854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.02097690516275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.94889912867451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9093552608904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.72063661544925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.76927510163897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.83046911632789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.86901939358954</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.88160604115438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.87456260319551</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.85924075414108</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.84234105989901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.82009074240389</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1140189268474</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.928155896987272</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.897172479966828</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.913481234730321</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.948732741421209</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.985317569903636</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.01767970627988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.04305288194064</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.05886266606621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.06652366254705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.618757216974215</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.385778069482009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$G$4:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7.86399587516968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.68991843945193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.20121390885986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.91470936974233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.00073262433374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.17817212150306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.41062911371695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3794243320807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.28808716211731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.40225954914194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.05962432964948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.99204734444642</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.74252983222629</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.87953090012126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.96234980211902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.01787419538709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.96311752695587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.99835940675879</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.07845457453335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.06791200247636</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.97884581698655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.93366176304831</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.08732899879927</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.09822742949498</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14135798914755</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.21644254957886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.29632248835096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.29061553091642</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.32854925751964</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.48247607711331</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.359987882474</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.40648028604384</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.81501506896101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.65236569885661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="88772792"/>
+        <c:axId val="40024144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="88772792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40024144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40024144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88772792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$H$4:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.248457586886392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.308312811834295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.356385179180541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.395275736600343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.425347291172861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.581361419610431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58521898198051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.577344565611513</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.581626547860587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.589524149534051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.598165613059166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.606585098761883</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.739519974032459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.756011380549633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.743377321723793</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.732789580695915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.726942161037826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.725168699924841</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.726340416515408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.728165185848463</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.730468044746779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.733387890358413</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.843123507043502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.868624765812324</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86820292207827</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.861337066453591</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.852892248658955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.845190434000991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.838988365056054</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.834138342847538</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.831388093444505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.829760184520675</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.913007878924623</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.955184738573885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace!$I$4:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.206974487561505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.208535632401054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.240371652082814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.248529449649215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32836251534954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.487705769709668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.459701338737516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.465138725494406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.478232419946244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.459012648879806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.502336564966124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.505340351901626</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.656979210496939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.632902544374125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.621148446154242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.614814560380583</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62430164959254</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61999433247748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.608260843430397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.613122890779971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62072424068079</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.628480159377603</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.745698264535907</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.741348011644183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.734117626853752</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.723567447811563</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.711730912900483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71294857152671</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.707985195744206</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.684116338780452</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.704153607034598</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.698424256996385</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.787194833967352</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.812097584433205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="5566237"/>
+        <c:axId val="6710539"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5566237"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6710539"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6710539"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5566237"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace_48ep!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace_48ep!$F$2:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>29.0386011237852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.1793085069094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.08328817143155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.57855381931888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.71115974481304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.09506204770784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.64527739733179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.26507376396668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.96989672780614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.90120217643362</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.85105860556814</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.79405060097698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.72840790038347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.87309344999777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.65942974299689</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.61143739212005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.60037042255802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.60029888517476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.60311217753648</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.08633631881715</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.942681121656148</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.887174989916194</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.857049557819749</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.842200985952945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.838495059137479</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.839738335098048</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.566141719834569</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.485074987986784</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.446151777347769</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.418343143300711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.396615608066618</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.380524665186457</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.367468917381267</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.362534141636652</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.263278889407841</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.234717582272292</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.218973520044568</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.206808851654994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.197033390121712</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.188750643925872</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.181827951220743</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.175265040796803</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.149311843800226</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.142556917159341</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.137808260362404</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.134521707106494</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.131080709394042</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.12115885519621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace_48ep!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace_48ep!$G$2:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>20.5510916518474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.4232719888622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.77140202952997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.90730673928288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5121316819437</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.06076496113507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.10684829492865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.285074367297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.45787034310178</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96421163776436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.53398745970193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.74533168756806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.35417372288917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.32235793849464</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.17683739252171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.28474961792551</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7107792075158</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.64852175641543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.95437698103099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.54430905609378</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.59007648400767</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.63318720405986</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.60951932248542</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.78412956458111</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9032744683033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.83885038536087</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.27485206754409</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.27140556447823</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.31460770978898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3402468362823</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3441732205322</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3463595176934</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.40644213425605</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.38160560594078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.18310455367291</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1844531951765</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.18420488300251</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.18446230522139</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.18927394414023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.20777242385041</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.21560075576618</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.21944959193004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.16779013833483</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.17355930159947</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.17952469508104</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.18115241802249</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.18181621844357</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.17333742898886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="82502750"/>
+        <c:axId val="38024126"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82502750"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38024126"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38024126"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82502750"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace_48ep!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace_48ep!$H$2:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.000112062304924108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0410991723490342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.202196678791007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.286007690222006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.349397815386154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.399722806804372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43953798557917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.579512606257928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.602990947211999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.606327484267805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.611042473545675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.617286619524645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.625035234149034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.740899714326994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.763978538136498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.764752025654969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.762443155751791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.759704713679738</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.757773678367875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.844785335209053</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.866015775023545</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.871410222529547</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.873067113083961</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.872449267655663</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.870399300319034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.867850204900128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.923083611145519</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.938414679045616</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.944767023112099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.949012939332001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.952080269241495</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.954028264174218</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.955639857513423</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.955389971454167</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.974997439955965</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.980185366509214</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.982792425189288</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.984712082527662</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.986101054008235</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.987300464156915</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.988211990108462</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.989078862881036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.991716620621654</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.992406598108294</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.992882326207359</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.993187814061587</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.993521424831418</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.994241457342367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_CosFace_48ep!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_CosFace_48ep!$I$2:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.000741930220775764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0727898808961555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.217665495951156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.267510497797395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.289155281529888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.320111976505543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.302752183284243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47968880149073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.455694572059114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.389487604441277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.443122976651525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.414108696212206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.346718418589474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.581171803216748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.600278223832791</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.582088911406318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51949026645943</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.530073076691884</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.492021673980061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68908830171829</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.678773410732227</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.672454981838166</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.677160742960679</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.649518689943582</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6295758803981</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.641386653843181</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.730426867491606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73082015920586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.723895477145286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.721515117686964</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.720166934299675</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.720953517728182</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.71214824864967</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71694675104978</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.749885361476304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.750333610984689</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.750615269679613</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.751293654950924</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.750950168737602</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.748401501034752</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.748061449683563</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.747735137780907</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.756382403201291</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.756298249079027</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.756353206873159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.755954762865705</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.755781302327978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75784737190111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="22287882"/>
+        <c:axId val="59955866"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="22287882"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59955866"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59955866"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22287882"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6943,9 +8170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>406800</xdr:colOff>
+      <xdr:colOff>406080</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6959,7 +8186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3246120"/>
-          <a:ext cx="4879080" cy="2791080"/>
+          <a:ext cx="4878360" cy="2790360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6980,9 +8207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>475200</xdr:colOff>
+      <xdr:colOff>474480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6996,7 +8223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="518400"/>
-          <a:ext cx="4856400" cy="2790720"/>
+          <a:ext cx="4855680" cy="2790000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7022,9 +8249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>126360</xdr:colOff>
+      <xdr:colOff>125640</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7038,7 +8265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3714480"/>
-          <a:ext cx="3795120" cy="2932560"/>
+          <a:ext cx="3794400" cy="2931840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7059,9 +8286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7075,7 +8302,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3677400"/>
-          <a:ext cx="4493880" cy="2831040"/>
+          <a:ext cx="4493160" cy="2830320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7096,9 +8323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>115200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7112,7 +8339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="351000"/>
-          <a:ext cx="3755880" cy="2940120"/>
+          <a:ext cx="3755160" cy="2939400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7133,9 +8360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>63720</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7149,7 +8376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="312840"/>
-          <a:ext cx="4341600" cy="2912400"/>
+          <a:ext cx="4340880" cy="2911680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7170,9 +8397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>805320</xdr:colOff>
+      <xdr:colOff>804600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7181,7 +8408,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6721560"/>
-        <a:ext cx="5752080" cy="3240000"/>
+        <a:ext cx="5751360" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7200,9 +8427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7211,7 +8438,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6726960"/>
-        <a:ext cx="5752080" cy="3240000"/>
+        <a:ext cx="5751360" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7235,9 +8462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>48600</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7246,7 +8473,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5879880"/>
-        <a:ext cx="5832720" cy="2977560"/>
+        <a:ext cx="5832000" cy="2976840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7265,9 +8492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>629280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7276,7 +8503,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5792400"/>
-        <a:ext cx="6238800" cy="3242160"/>
+        <a:ext cx="6238080" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7300,9 +8527,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>48600</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7311,7 +8538,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5673960"/>
-        <a:ext cx="5832720" cy="2977560"/>
+        <a:ext cx="5832000" cy="2976840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7330,9 +8557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>629280</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7341,7 +8568,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5586480"/>
-        <a:ext cx="6238800" cy="3242520"/>
+        <a:ext cx="6238080" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7365,9 +8592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>79200</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7376,7 +8603,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3480840" y="6023880"/>
-        <a:ext cx="5756040" cy="3236040"/>
+        <a:ext cx="5755320" cy="3235320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7395,9 +8622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>281520</xdr:colOff>
+      <xdr:colOff>280800</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7406,7 +8633,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9551880" y="6044760"/>
-        <a:ext cx="5756040" cy="3236040"/>
+        <a:ext cx="5755320" cy="3235320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7430,9 +8657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1113480</xdr:colOff>
+      <xdr:colOff>1112760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7441,7 +8668,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3101400" y="7093800"/>
-        <a:ext cx="5757120" cy="3237120"/>
+        <a:ext cx="5756400" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7460,9 +8687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>497520</xdr:colOff>
+      <xdr:colOff>496800</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7471,7 +8698,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9006120" y="6987960"/>
-        <a:ext cx="5757120" cy="3237120"/>
+        <a:ext cx="5756400" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7495,9 +8722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1113480</xdr:colOff>
+      <xdr:colOff>1112760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7506,7 +8733,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3101400" y="7093800"/>
-        <a:ext cx="5757120" cy="3237120"/>
+        <a:ext cx="5756400" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7525,9 +8752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>497520</xdr:colOff>
+      <xdr:colOff>496800</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7536,7 +8763,72 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9006120" y="6987960"/>
-        <a:ext cx="5757120" cy="3237120"/>
+        <a:ext cx="5756400" cy="3236400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141840</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556920</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2695680" y="8787240"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>769320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8667360" y="8762760"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7560,9 +8852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7576,7 +8868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="572040"/>
-          <a:ext cx="5091120" cy="2608200"/>
+          <a:ext cx="5090400" cy="2607480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7602,9 +8894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7618,7 +8910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4426560"/>
-          <a:ext cx="4887000" cy="3587040"/>
+          <a:ext cx="4886280" cy="3586320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7639,9 +8931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>524160</xdr:colOff>
+      <xdr:colOff>523440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7655,7 +8947,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="353880"/>
-          <a:ext cx="4769640" cy="3731400"/>
+          <a:ext cx="4768920" cy="3730680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7681,9 +8973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>400680</xdr:colOff>
+      <xdr:colOff>399960</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7697,7 +8989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5542920" cy="3067560"/>
+          <a:ext cx="5542200" cy="3066840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7718,9 +9010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>408600</xdr:colOff>
+      <xdr:colOff>407880</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7734,7 +9026,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3256560"/>
-          <a:ext cx="5649480" cy="2968200"/>
+          <a:ext cx="5648760" cy="2967480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7760,9 +9052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>200160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7776,7 +9068,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="305280"/>
-          <a:ext cx="5022720" cy="2867040"/>
+          <a:ext cx="5022000" cy="2866320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7802,9 +9094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>133560</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7818,7 +9110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3703680"/>
-          <a:ext cx="5337360" cy="3070080"/>
+          <a:ext cx="5336640" cy="3069360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7839,9 +9131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>133560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7855,7 +9147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="342720"/>
-          <a:ext cx="5335560" cy="3065040"/>
+          <a:ext cx="5334840" cy="3064320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7881,9 +9173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7897,7 +9189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3385440"/>
-          <a:ext cx="6041160" cy="3796200"/>
+          <a:ext cx="6040440" cy="3795480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7918,9 +9210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7934,7 +9226,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="183240"/>
-          <a:ext cx="6062760" cy="3164760"/>
+          <a:ext cx="6062040" cy="3164040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7960,9 +9252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>201240</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7976,7 +9268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4275360"/>
-          <a:ext cx="4709880" cy="3495960"/>
+          <a:ext cx="4709160" cy="3495240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7997,9 +9289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>215280</xdr:colOff>
+      <xdr:colOff>214560</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8013,7 +9305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="457200"/>
-          <a:ext cx="4681440" cy="3655440"/>
+          <a:ext cx="4680720" cy="3654720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8039,9 +9331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>272520</xdr:colOff>
+      <xdr:colOff>271800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8055,7 +9347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4499640"/>
-          <a:ext cx="5010480" cy="3597480"/>
+          <a:ext cx="5009760" cy="3596760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8076,9 +9368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>240480</xdr:colOff>
+      <xdr:colOff>239760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8092,7 +9384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="252720"/>
-          <a:ext cx="4750200" cy="3669840"/>
+          <a:ext cx="4749480" cy="3669120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8113,9 +9405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>906120</xdr:colOff>
+      <xdr:colOff>905400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8124,7 +9416,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2757240" y="5026320"/>
-        <a:ext cx="5755320" cy="3235320"/>
+        <a:ext cx="5754600" cy="3234600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8143,9 +9435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>851760</xdr:colOff>
+      <xdr:colOff>851040</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8154,7 +9446,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2702880" y="8618040"/>
-        <a:ext cx="5755320" cy="3235320"/>
+        <a:ext cx="5754600" cy="3234600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9121,7 +10413,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10460,7 +11752,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12287,9 +13579,9 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12601,7 +13893,6 @@
         <f aca="false">ROUND(I12*100, 2)</f>
         <v>62.51</v>
       </c>
-      <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -12650,7 +13941,6 @@
         <f aca="false">ROUND(I14*100, 2)</f>
         <v>68.1</v>
       </c>
-      <c r="K14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -12705,7 +13995,6 @@
         <f aca="false">ROUND(I16*100, 2)</f>
         <v>71.73</v>
       </c>
-      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="n">
@@ -12823,7 +14112,6 @@
         <f aca="false">ROUND(I21*100, 2)</f>
         <v>74.15</v>
       </c>
-      <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -12975,7 +14263,7 @@
         <f aca="false">ROUND(I27*100, 2)</f>
         <v>74.37</v>
       </c>
-      <c r="K27" s="6"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -13032,6 +14320,7 @@
         <f aca="false">ROUND(I29*100, 2)</f>
         <v>74.37</v>
       </c>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -13145,6 +14434,7 @@
         <f aca="false">ROUND(I33*100, 2)</f>
         <v>74.41</v>
       </c>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -13201,6 +14491,7 @@
         <f aca="false">ROUND(I35*100, 2)</f>
         <v>74.38</v>
       </c>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -13257,10 +14548,13 @@
         <f aca="false">ROUND(I37*100, 2)</f>
         <v>74.42</v>
       </c>
+      <c r="K37" s="9" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B38" s="0" t="n">
         <f aca="false">B37/2</f>
@@ -13269,7 +14563,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B39" s="0" t="n">
         <f aca="false">B38/2</f>
@@ -13285,7 +14579,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B40" s="0" t="n">
         <f aca="false">B39/2</f>
@@ -13294,7 +14588,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B41" s="0" t="n">
         <f aca="false">B40/2</f>
@@ -13303,7 +14597,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">B41/2</f>
@@ -13312,7 +14606,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B43" s="0" t="n">
         <f aca="false">B42/2</f>
@@ -13321,7 +14615,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B44" s="0" t="n">
         <f aca="false">B43/2</f>
@@ -13330,7 +14624,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B45" s="0" t="n">
         <f aca="false">B44/2</f>
@@ -13394,10 +14688,10 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+      <selection pane="bottomLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13466,7 +14760,9 @@
         <f aca="false">ROUND(I2*100, 2)</f>
         <v>0.51</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="0" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -13522,7 +14818,9 @@
         <f aca="false">ROUND(I4*100, 2)</f>
         <v>20.7</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
@@ -13593,7 +14891,9 @@
         <f aca="false">ROUND(I7*100, 2)</f>
         <v>24.85</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -13663,7 +14963,9 @@
         <f aca="false">ROUND(I10*100, 2)</f>
         <v>45.97</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -13739,7 +15041,9 @@
         <f aca="false">ROUND(I13*100, 2)</f>
         <v>45.9</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="n">
@@ -13815,7 +15119,9 @@
         <f aca="false">ROUND(I16*100, 2)</f>
         <v>65.7</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="n">
@@ -13885,7 +15191,9 @@
         <f aca="false">ROUND(I19*100, 2)</f>
         <v>61.48</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
@@ -13958,7 +15266,9 @@
         <f aca="false">ROUND(I22*100, 2)</f>
         <v>60.83</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -14036,7 +15346,9 @@
         <f aca="false">ROUND(I25*100, 2)</f>
         <v>62.85</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="9" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="0" t="n">
@@ -14114,11 +15426,13 @@
         <f aca="false">ROUND(I28*100, 2)</f>
         <v>73.41</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">B28/2</f>
@@ -14146,7 +15460,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">B29/2</f>
@@ -14174,7 +15488,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">B30/2</f>
@@ -14199,11 +15513,13 @@
         <f aca="false">ROUND(I31*100, 2)</f>
         <v>71.29</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="9" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">B31/2</f>
@@ -14231,7 +15547,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">B32/2</f>
@@ -14277,7 +15593,9 @@
         <f aca="false">ROUND(I34*100, 2)</f>
         <v>70.42</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="9" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="0" t="n">
@@ -14341,7 +15659,9 @@
         <f aca="false">ROUND(I37*100, 2)</f>
         <v>81.21</v>
       </c>
-      <c r="K37" s="9"/>
+      <c r="K37" s="9" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14396,6 +15716,1389 @@
       <c r="B51" s="7" t="n">
         <v>0.0005</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="9.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4658123</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>29.0386011237852</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>20.5510916518474</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.000112062304924108</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.000741930220775764</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <f aca="false">ROUND(I2*100, 2)</f>
+        <v>0.07</v>
+      </c>
+      <c r="K2" s="13" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>14.1793085069094</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>11.4232719888622</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.0410991723490342</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.0727898808961555</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <f aca="false">ROUND(I3*100, 2)</f>
+        <v>7.28</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8.08328817143155</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>7.77140202952997</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.202196678791007</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.217665495951156</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <f aca="false">ROUND(I4*100, 2)</f>
+        <v>21.77</v>
+      </c>
+      <c r="K4" s="13" t="n">
+        <v>91.53</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>6.57855381931888</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>6.90730673928288</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.286007690222006</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.267510497797395</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <f aca="false">ROUND(I5*100, 2)</f>
+        <v>26.75</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5.71115974481304</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>6.5121316819437</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.349397815386154</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.289155281529888</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <f aca="false">ROUND(I6*100, 2)</f>
+        <v>28.92</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5.09506204770784</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>6.06076496113507</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.399722806804372</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.320111976505543</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <f aca="false">ROUND(I7*100, 2)</f>
+        <v>32.01</v>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>88</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4.64527739733179</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>6.10684829492865</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.43953798557917</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.302752183284243</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <f aca="false">ROUND(I8*100, 2)</f>
+        <v>30.28</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3.26507376396668</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4.285074367297</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.579512606257928</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.47968880149073</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <f aca="false">ROUND(I9*100, 2)</f>
+        <v>47.97</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2.96989672780614</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>4.45787034310178</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.602990947211999</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.455694572059114</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <f aca="false">ROUND(I10*100, 2)</f>
+        <v>45.57</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2.90120217643362</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>4.96421163776436</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.606327484267805</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.389487604441277</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <f aca="false">ROUND(I11*100, 2)</f>
+        <v>38.95</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2.85105860556814</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>4.53398745970193</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.611042473545675</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.443122976651525</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <f aca="false">ROUND(I12*100, 2)</f>
+        <v>44.31</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2.79405060097698</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>4.74533168756806</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.617286619524645</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.414108696212206</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <f aca="false">ROUND(I13*100, 2)</f>
+        <v>41.41</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2.72840790038347</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>5.35417372288917</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.625035234149034</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.346718418589474</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <f aca="false">ROUND(I14*100, 2)</f>
+        <v>34.67</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1.87309344999777</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>3.32235793849464</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.740899714326994</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.581171803216748</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <f aca="false">ROUND(I15*100, 2)</f>
+        <v>58.12</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1.65942974299689</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>3.17683739252171</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.763978538136498</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.600278223832791</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <f aca="false">ROUND(I16*100, 2)</f>
+        <v>60.03</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1.61143739212005</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>3.28474961792551</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.764752025654969</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.582088911406318</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <f aca="false">ROUND(I17*100, 2)</f>
+        <v>58.21</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1.60037042255802</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>3.7107792075158</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.762443155751791</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.51949026645943</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <f aca="false">ROUND(I18*100, 2)</f>
+        <v>51.95</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1.60029888517476</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3.64852175641543</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.759704713679738</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.530073076691884</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <f aca="false">ROUND(I19*100, 2)</f>
+        <v>53.01</v>
+      </c>
+      <c r="K19" s="13" t="n">
+        <v>83.55</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1.60311217753648</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>3.95437698103099</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.757773678367875</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.492021673980061</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <f aca="false">ROUND(I20*100, 2)</f>
+        <v>49.2</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1.08633631881715</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2.54430905609378</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.844785335209053</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.68908830171829</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <f aca="false">ROUND(I21*100, 2)</f>
+        <v>68.91</v>
+      </c>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.942681121656148</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2.59007648400767</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.866015775023545</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.678773410732227</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <f aca="false">ROUND(I22*100, 2)</f>
+        <v>67.88</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.887174989916194</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2.63318720405986</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.871410222529547</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.672454981838166</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <f aca="false">ROUND(I23*100, 2)</f>
+        <v>67.25</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.857049557819749</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2.60951932248542</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.873067113083961</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.677160742960679</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <f aca="false">ROUND(I24*100, 2)</f>
+        <v>67.72</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.842200985952945</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2.78412956458111</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.872449267655663</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.649518689943582</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <f aca="false">ROUND(I25*100, 2)</f>
+        <v>64.95</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.838495059137479</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2.9032744683033</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.870399300319034</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.6295758803981</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <f aca="false">ROUND(I26*100, 2)</f>
+        <v>62.96</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.839738335098048</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2.83885038536087</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.867850204900128</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.641386653843181</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <f aca="false">ROUND(I27*100, 2)</f>
+        <v>64.14</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.566141719834569</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2.27485206754409</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.923083611145519</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.730426867491606</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <f aca="false">ROUND(I28*100, 2)</f>
+        <v>73.04</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">B28/2</f>
+        <v>0.005</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.485074987986784</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2.27140556447823</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.938414679045616</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.73082015920586</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <f aca="false">ROUND(I29*100, 2)</f>
+        <v>73.08</v>
+      </c>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">B29/2</f>
+        <v>0.0025</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.446151777347769</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2.31460770978898</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.944767023112099</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.723895477145286</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <f aca="false">ROUND(I30*100, 2)</f>
+        <v>72.39</v>
+      </c>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">B30/2</f>
+        <v>0.00125</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.418343143300711</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2.3402468362823</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.949012939332001</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.721515117686964</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <f aca="false">ROUND(I31*100, 2)</f>
+        <v>72.15</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">B31/2</f>
+        <v>0.000625</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.396615608066618</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2.3441732205322</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.952080269241495</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.720166934299675</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <f aca="false">ROUND(I32*100, 2)</f>
+        <v>72.02</v>
+      </c>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">B32/2</f>
+        <v>0.0003125</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.380524665186457</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2.3463595176934</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.954028264174218</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.720953517728182</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <f aca="false">ROUND(I33*100, 2)</f>
+        <v>72.1</v>
+      </c>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">B33/2</f>
+        <v>0.00015625</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.367468917381267</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>2.40644213425605</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.955639857513423</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.71214824864967</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <f aca="false">ROUND(I34*100, 2)</f>
+        <v>71.21</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">B34/2</f>
+        <v>7.8125E-005</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.362534141636652</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>2.38160560594078</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.955389971454167</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.71694675104978</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <f aca="false">ROUND(I35*100, 2)</f>
+        <v>71.69</v>
+      </c>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <f aca="false">B35/2</f>
+        <v>3.90625E-005</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.263278889407841</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2.18310455367291</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.974997439955965</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.749885361476304</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <f aca="false">ROUND(I36*100, 2)</f>
+        <v>74.99</v>
+      </c>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.234717582272292</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>2.1844531951765</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.980185366509214</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.750333610984689</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <f aca="false">ROUND(I37*100, 2)</f>
+        <v>75.03</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.218973520044568</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>2.18420488300251</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.982792425189288</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.750615269679613</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <f aca="false">ROUND(I38*100, 2)</f>
+        <v>75.06</v>
+      </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.206808851654994</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>2.18446230522139</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.984712082527662</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.751293654950924</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <f aca="false">ROUND(I39*100, 2)</f>
+        <v>75.13</v>
+      </c>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.197033390121712</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>2.18927394414023</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.986101054008235</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.750950168737602</v>
+      </c>
+      <c r="J40" s="4" t="n">
+        <f aca="false">ROUND(I40*100, 2)</f>
+        <v>75.1</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.188750643925872</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2.20777242385041</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.987300464156915</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.748401501034752</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <f aca="false">ROUND(I41*100, 2)</f>
+        <v>74.84</v>
+      </c>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.181827951220743</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>2.21560075576618</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.988211990108462</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.748061449683563</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <f aca="false">ROUND(I42*100, 2)</f>
+        <v>74.81</v>
+      </c>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.175265040796803</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>2.21944959193004</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.989078862881036</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.747735137780907</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <f aca="false">ROUND(I43*100, 2)</f>
+        <v>74.77</v>
+      </c>
+      <c r="K43" s="13" t="n">
+        <v>77.4</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.149311843800226</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>2.16779013833483</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.991716620621654</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.756382403201291</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <f aca="false">ROUND(I44*100, 2)</f>
+        <v>75.64</v>
+      </c>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.142556917159341</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>2.17355930159947</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0.992406598108294</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.756298249079027</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <f aca="false">ROUND(I45*100, 2)</f>
+        <v>75.63</v>
+      </c>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.137808260362404</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>2.17952469508104</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.992882326207359</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.756353206873159</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <f aca="false">ROUND(I46*100, 2)</f>
+        <v>75.64</v>
+      </c>
+      <c r="K46" s="13" t="n">
+        <v>77.68</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.134521707106494</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>2.18115241802249</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.993187814061587</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.755954762865705</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <f aca="false">ROUND(I47*100, 2)</f>
+        <v>75.6</v>
+      </c>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.131080709394042</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>2.18181621844357</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.993521424831418</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.755781302327978</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <f aca="false">ROUND(I48*100, 2)</f>
+        <v>75.58</v>
+      </c>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.12115885519621</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>2.17333742898886</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.994241457342367</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.75784737190111</v>
+      </c>
+      <c r="J49" s="4" t="n">
+        <f aca="false">ROUND(I49*100, 2)</f>
+        <v>75.78</v>
+      </c>
+      <c r="K49" s="13" t="n">
+        <v>77.42</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="7" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <f aca="false">MAX(J2:J49)</f>
+        <v>75.78</v>
+      </c>
+      <c r="K51" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
